--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670C9C2-E9D6-4E0E-9648-42EB2EF41E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639A2DE-85A5-403B-8347-8E1329CEFB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Rating" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="28">
   <si>
     <t>Vintage</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Château Cheval Blanc</t>
+  </si>
+  <si>
+    <t>Petrus Pomerol</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6251,6 +6254,581 @@
         <v>43556</v>
       </c>
       <c r="G252" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D253">
+        <v>91</v>
+      </c>
+      <c r="E253">
+        <v>93</v>
+      </c>
+      <c r="F253" s="2">
+        <v>34790</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D254">
+        <v>95</v>
+      </c>
+      <c r="E254">
+        <v>98</v>
+      </c>
+      <c r="F254" s="2">
+        <v>35156</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D255">
+        <v>92</v>
+      </c>
+      <c r="E255">
+        <v>94</v>
+      </c>
+      <c r="F255" s="2">
+        <v>35796</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D256">
+        <v>92</v>
+      </c>
+      <c r="E256">
+        <v>94</v>
+      </c>
+      <c r="F256" s="2">
+        <v>35886</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D257">
+        <v>96</v>
+      </c>
+      <c r="E257">
+        <v>98</v>
+      </c>
+      <c r="F257" s="2">
+        <v>36251</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D258">
+        <v>91</v>
+      </c>
+      <c r="E258">
+        <v>94</v>
+      </c>
+      <c r="F258" s="2">
+        <v>36617</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D259">
+        <v>92</v>
+      </c>
+      <c r="E259">
+        <v>94</v>
+      </c>
+      <c r="F259" s="2">
+        <v>36982</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D260">
+        <v>91</v>
+      </c>
+      <c r="E260">
+        <v>93</v>
+      </c>
+      <c r="F260" s="2">
+        <v>37347</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D261">
+        <v>90</v>
+      </c>
+      <c r="E261">
+        <v>93</v>
+      </c>
+      <c r="F261" s="2">
+        <v>37895</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D262">
+        <v>96</v>
+      </c>
+      <c r="E262">
+        <v>98</v>
+      </c>
+      <c r="F262" s="2">
+        <v>38078</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B263" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D263">
+        <v>92</v>
+      </c>
+      <c r="E263">
+        <v>95</v>
+      </c>
+      <c r="F263" s="2">
+        <v>38443</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B264" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D264">
+        <v>96</v>
+      </c>
+      <c r="E264">
+        <v>100</v>
+      </c>
+      <c r="F264" s="2">
+        <v>38808</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B265" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D265">
+        <v>94</v>
+      </c>
+      <c r="E265">
+        <v>96</v>
+      </c>
+      <c r="F265" s="2">
+        <v>39173</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D266">
+        <v>90</v>
+      </c>
+      <c r="E266">
+        <v>93</v>
+      </c>
+      <c r="F266" s="2">
+        <v>39539</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B267" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D267">
+        <v>98</v>
+      </c>
+      <c r="E267">
+        <v>100</v>
+      </c>
+      <c r="F267" s="2">
+        <v>39904</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D268">
+        <v>96</v>
+      </c>
+      <c r="E268">
+        <v>100</v>
+      </c>
+      <c r="F268" s="2">
+        <v>40269</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B269" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D269">
+        <v>98</v>
+      </c>
+      <c r="E269">
+        <v>100</v>
+      </c>
+      <c r="F269" s="2">
+        <v>40664</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D270">
+        <v>90</v>
+      </c>
+      <c r="E270">
+        <v>93</v>
+      </c>
+      <c r="F270" s="2">
+        <v>41000</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D271">
+        <v>95</v>
+      </c>
+      <c r="E271">
+        <v>98</v>
+      </c>
+      <c r="F271" s="2">
+        <v>41365</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D272">
+        <v>90</v>
+      </c>
+      <c r="E272">
+        <v>93</v>
+      </c>
+      <c r="F272" s="2">
+        <v>41852</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D273">
+        <v>93</v>
+      </c>
+      <c r="E273">
+        <v>95</v>
+      </c>
+      <c r="F273" s="2">
+        <v>42095</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D274">
+        <v>98</v>
+      </c>
+      <c r="E274">
+        <v>100</v>
+      </c>
+      <c r="F274" s="2">
+        <v>42461</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D275">
+        <v>96</v>
+      </c>
+      <c r="E275">
+        <v>98</v>
+      </c>
+      <c r="F275" s="2">
+        <v>42826</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D276">
+        <v>93</v>
+      </c>
+      <c r="E276">
+        <v>95</v>
+      </c>
+      <c r="F276" s="2">
+        <v>43191</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D277">
+        <v>98</v>
+      </c>
+      <c r="E277">
+        <v>100</v>
+      </c>
+      <c r="F277" s="2">
+        <v>43556</v>
+      </c>
+      <c r="G277" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639A2DE-85A5-403B-8347-8E1329CEFB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726A80C-8D22-4C95-9A48-BFB9CBE61E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="29">
   <si>
     <t>Vintage</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Petrus Pomerol</t>
+  </si>
+  <si>
+    <t>Château Pavie</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6829,6 +6832,581 @@
         <v>43556</v>
       </c>
       <c r="G277" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D278">
+        <v>85</v>
+      </c>
+      <c r="E278">
+        <v>87</v>
+      </c>
+      <c r="F278" s="2">
+        <v>34790</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B279" t="s">
+        <v>23</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D279">
+        <v>85</v>
+      </c>
+      <c r="E279">
+        <v>87</v>
+      </c>
+      <c r="F279" s="2">
+        <v>35156</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" t="s">
+        <v>23</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D280">
+        <v>85</v>
+      </c>
+      <c r="E280">
+        <v>87</v>
+      </c>
+      <c r="F280" s="2">
+        <v>35796</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B281" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D281">
+        <v>83</v>
+      </c>
+      <c r="E281">
+        <v>85</v>
+      </c>
+      <c r="F281" s="2">
+        <v>35886</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B282" t="s">
+        <v>23</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D282">
+        <v>91</v>
+      </c>
+      <c r="E282">
+        <v>93</v>
+      </c>
+      <c r="F282" s="2">
+        <v>36251</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B283" t="s">
+        <v>23</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D283">
+        <v>92</v>
+      </c>
+      <c r="E283">
+        <v>96</v>
+      </c>
+      <c r="F283" s="2">
+        <v>36617</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D284">
+        <v>95</v>
+      </c>
+      <c r="E284">
+        <v>96</v>
+      </c>
+      <c r="F284" s="2">
+        <v>36982</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" t="s">
+        <v>23</v>
+      </c>
+      <c r="C285" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D285">
+        <v>94</v>
+      </c>
+      <c r="E285">
+        <v>96</v>
+      </c>
+      <c r="F285" s="2">
+        <v>37347</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" t="s">
+        <v>23</v>
+      </c>
+      <c r="C286" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D286">
+        <v>92</v>
+      </c>
+      <c r="E286">
+        <v>95</v>
+      </c>
+      <c r="F286" s="2">
+        <v>37895</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D287">
+        <v>96</v>
+      </c>
+      <c r="E287">
+        <v>100</v>
+      </c>
+      <c r="F287" s="2">
+        <v>38078</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B288" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D288">
+        <v>95</v>
+      </c>
+      <c r="E288">
+        <v>97</v>
+      </c>
+      <c r="F288" s="2">
+        <v>38443</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D289">
+        <v>98</v>
+      </c>
+      <c r="E289">
+        <v>100</v>
+      </c>
+      <c r="F289" s="2">
+        <v>38808</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D290">
+        <v>96</v>
+      </c>
+      <c r="E290">
+        <v>98</v>
+      </c>
+      <c r="F290" s="2">
+        <v>39173</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D291">
+        <v>93</v>
+      </c>
+      <c r="E291">
+        <v>95</v>
+      </c>
+      <c r="F291" s="2">
+        <v>39539</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B292" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D292">
+        <v>96</v>
+      </c>
+      <c r="E292">
+        <v>98</v>
+      </c>
+      <c r="F292" s="2">
+        <v>39904</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D293">
+        <v>96</v>
+      </c>
+      <c r="E293">
+        <v>100</v>
+      </c>
+      <c r="F293" s="2">
+        <v>40269</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294" t="s">
+        <v>23</v>
+      </c>
+      <c r="C294" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D294">
+        <v>95</v>
+      </c>
+      <c r="E294">
+        <v>98</v>
+      </c>
+      <c r="F294" s="2">
+        <v>40664</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B295" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D295">
+        <v>93</v>
+      </c>
+      <c r="E295">
+        <v>95</v>
+      </c>
+      <c r="F295" s="2">
+        <v>41000</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D296">
+        <v>94</v>
+      </c>
+      <c r="E296">
+        <v>96</v>
+      </c>
+      <c r="F296" s="2">
+        <v>41365</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D297">
+        <v>92</v>
+      </c>
+      <c r="E297">
+        <v>94</v>
+      </c>
+      <c r="F297" s="2">
+        <v>41852</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D298">
+        <v>94</v>
+      </c>
+      <c r="E298">
+        <v>96</v>
+      </c>
+      <c r="F298" s="2">
+        <v>42095</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D299">
+        <v>96</v>
+      </c>
+      <c r="E299">
+        <v>98</v>
+      </c>
+      <c r="F299" s="2">
+        <v>42461</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D300">
+        <v>98</v>
+      </c>
+      <c r="E300">
+        <v>100</v>
+      </c>
+      <c r="F300" s="2">
+        <v>42826</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D301">
+        <v>97</v>
+      </c>
+      <c r="E301">
+        <v>99</v>
+      </c>
+      <c r="F301" s="2">
+        <v>43191</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D302">
+        <v>97</v>
+      </c>
+      <c r="E302">
+        <v>100</v>
+      </c>
+      <c r="F302" s="2">
+        <v>43556</v>
+      </c>
+      <c r="G302" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726A80C-8D22-4C95-9A48-BFB9CBE61E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCC07F-34BF-4359-B204-5833DC8A3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Rating" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="32">
   <si>
     <t>Vintage</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Château Palmer</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Château Lafite Rothschild Pauillac</t>
   </si>
   <si>
@@ -113,6 +110,18 @@
   </si>
   <si>
     <t>Château Pavie</t>
+  </si>
+  <si>
+    <t>Château Léoville Las Cases Saint-Julien</t>
+  </si>
+  <si>
+    <t>Pomerol</t>
+  </si>
+  <si>
+    <t>Saint Emilion</t>
+  </si>
+  <si>
+    <t>Médoc</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -489,10 +498,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1994</v>
@@ -512,10 +521,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>1995</v>
@@ -535,10 +544,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1996</v>
@@ -558,10 +567,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1997</v>
@@ -581,10 +590,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1998</v>
@@ -604,10 +613,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>1999</v>
@@ -627,10 +636,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2000</v>
@@ -650,10 +659,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>2001</v>
@@ -673,10 +682,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2002</v>
@@ -696,10 +705,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>2003</v>
@@ -719,10 +728,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>2004</v>
@@ -742,10 +751,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>2005</v>
@@ -765,10 +774,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2006</v>
@@ -788,10 +797,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>2007</v>
@@ -811,10 +820,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>2008</v>
@@ -834,10 +843,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
@@ -857,10 +866,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>2010</v>
@@ -880,10 +889,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>2011</v>
@@ -903,10 +912,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2012</v>
@@ -926,10 +935,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>2013</v>
@@ -949,10 +958,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2014</v>
@@ -972,10 +981,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>2015</v>
@@ -995,10 +1004,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -1018,10 +1027,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <v>2017</v>
@@ -1041,10 +1050,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2018</v>
@@ -1064,10 +1073,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
         <v>2019</v>
@@ -1087,10 +1096,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>1994</v>
@@ -1110,10 +1119,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>1995</v>
@@ -1133,10 +1142,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>1996</v>
@@ -1156,10 +1165,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>1997</v>
@@ -1179,10 +1188,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>1998</v>
@@ -1202,10 +1211,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>1999</v>
@@ -1225,10 +1234,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>2000</v>
@@ -1248,10 +1257,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>2001</v>
@@ -1271,10 +1280,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
         <v>2002</v>
@@ -1294,10 +1303,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>2003</v>
@@ -1317,10 +1326,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>2004</v>
@@ -1340,10 +1349,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>2005</v>
@@ -1363,10 +1372,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>2006</v>
@@ -1386,10 +1395,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>2007</v>
@@ -1409,10 +1418,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
         <v>2008</v>
@@ -1432,10 +1441,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>2009</v>
@@ -1455,10 +1464,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1">
         <v>2010</v>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>2011</v>
@@ -1501,10 +1510,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
         <v>2012</v>
@@ -1524,10 +1533,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>2013</v>
@@ -1547,10 +1556,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1">
         <v>2014</v>
@@ -1570,10 +1579,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>2015</v>
@@ -1593,10 +1602,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1">
         <v>2016</v>
@@ -1616,10 +1625,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>2017</v>
@@ -1639,10 +1648,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1">
         <v>2018</v>
@@ -1665,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>1994</v>
@@ -1688,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1">
         <v>1995</v>
@@ -1711,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>1996</v>
@@ -1734,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1">
         <v>1997</v>
@@ -1757,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>1998</v>
@@ -1780,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
         <v>1999</v>
@@ -1803,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>2000</v>
@@ -1826,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
         <v>2001</v>
@@ -1849,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>2002</v>
@@ -1872,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
         <v>2003</v>
@@ -1895,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>2004</v>
@@ -1918,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1">
         <v>2005</v>
@@ -1941,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>2006</v>
@@ -1964,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1">
         <v>2007</v>
@@ -1987,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>2008</v>
@@ -2010,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
         <v>2009</v>
@@ -2033,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>2010</v>
@@ -2056,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1">
         <v>2011</v>
@@ -2079,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>2012</v>
@@ -2102,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
         <v>2013</v>
@@ -2125,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>2014</v>
@@ -2148,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>2015</v>
@@ -2171,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>2016</v>
@@ -2194,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C76" s="1">
         <v>2017</v>
@@ -2217,7 +2226,7 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C77">
         <v>2018</v>
@@ -2237,10 +2246,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1">
         <v>1994</v>
@@ -2260,10 +2269,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C79">
         <v>1995</v>
@@ -2283,10 +2292,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
         <v>1996</v>
@@ -2306,10 +2315,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C81">
         <v>1997</v>
@@ -2329,10 +2338,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1">
         <v>1998</v>
@@ -2352,10 +2361,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>1999</v>
@@ -2375,10 +2384,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1">
         <v>2000</v>
@@ -2398,10 +2407,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C85">
         <v>2001</v>
@@ -2421,10 +2430,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
         <v>2002</v>
@@ -2444,10 +2453,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C87">
         <v>2003</v>
@@ -2467,10 +2476,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
         <v>2004</v>
@@ -2490,10 +2499,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C89">
         <v>2005</v>
@@ -2513,10 +2522,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
         <v>2006</v>
@@ -2536,10 +2545,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C91">
         <v>2007</v>
@@ -2559,10 +2568,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1">
         <v>2008</v>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C93">
         <v>2009</v>
@@ -2605,10 +2614,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
         <v>2010</v>
@@ -2628,10 +2637,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C95">
         <v>2011</v>
@@ -2651,10 +2660,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C96" s="1">
         <v>2012</v>
@@ -2674,10 +2683,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>2013</v>
@@ -2697,10 +2706,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1">
         <v>2014</v>
@@ -2720,10 +2729,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C99">
         <v>2015</v>
@@ -2743,10 +2752,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C100" s="1">
         <v>2016</v>
@@ -2766,10 +2775,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C101">
         <v>2017</v>
@@ -2789,10 +2798,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C102" s="1">
         <v>2018</v>
@@ -2815,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C103">
         <v>1994</v>
@@ -2838,7 +2847,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C104" s="1">
         <v>1995</v>
@@ -2861,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C105">
         <v>1996</v>
@@ -2884,7 +2893,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C106" s="1">
         <v>1997</v>
@@ -2907,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C107">
         <v>1998</v>
@@ -2930,7 +2939,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
         <v>1999</v>
@@ -2953,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C109">
         <v>2000</v>
@@ -2976,7 +2985,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C110" s="1">
         <v>2001</v>
@@ -2999,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C111">
         <v>2002</v>
@@ -3022,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C112" s="1">
         <v>2003</v>
@@ -3045,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C113">
         <v>2004</v>
@@ -3068,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C114" s="1">
         <v>2005</v>
@@ -3091,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C115">
         <v>2006</v>
@@ -3114,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C116" s="1">
         <v>2007</v>
@@ -3137,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C117">
         <v>2008</v>
@@ -3160,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C118" s="1">
         <v>2009</v>
@@ -3183,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>2010</v>
@@ -3206,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C120" s="1">
         <v>2011</v>
@@ -3229,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C121">
         <v>2012</v>
@@ -3252,7 +3261,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C122" s="1">
         <v>2013</v>
@@ -3275,7 +3284,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C123">
         <v>2014</v>
@@ -3298,7 +3307,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C124" s="1">
         <v>2015</v>
@@ -3321,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C125">
         <v>2016</v>
@@ -3344,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C126" s="1">
         <v>2017</v>
@@ -3367,7 +3376,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C127">
         <v>2018</v>
@@ -3390,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C128" s="1">
         <v>1994</v>
@@ -3413,7 +3422,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C129">
         <v>1995</v>
@@ -3436,7 +3445,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C130" s="1">
         <v>1996</v>
@@ -3459,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C131">
         <v>1997</v>
@@ -3482,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C132" s="1">
         <v>1998</v>
@@ -3505,7 +3514,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C133">
         <v>1999</v>
@@ -3528,7 +3537,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C134" s="1">
         <v>2000</v>
@@ -3551,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C135">
         <v>2001</v>
@@ -3574,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C136" s="1">
         <v>2002</v>
@@ -3597,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C137">
         <v>2003</v>
@@ -3620,7 +3629,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C138" s="1">
         <v>2004</v>
@@ -3643,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C139">
         <v>2005</v>
@@ -3666,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C140" s="1">
         <v>2006</v>
@@ -3689,7 +3698,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C141">
         <v>2007</v>
@@ -3712,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C142" s="1">
         <v>2008</v>
@@ -3735,7 +3744,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C143">
         <v>2009</v>
@@ -3758,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C144" s="1">
         <v>2010</v>
@@ -3781,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C145">
         <v>2011</v>
@@ -3804,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C146" s="1">
         <v>2012</v>
@@ -3827,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C147">
         <v>2013</v>
@@ -3850,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C148" s="1">
         <v>2014</v>
@@ -3873,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C149">
         <v>2015</v>
@@ -3896,7 +3905,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C150" s="1">
         <v>2016</v>
@@ -3919,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C151">
         <v>2017</v>
@@ -3942,7 +3951,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C152" s="1">
         <v>2018</v>
@@ -3965,7 +3974,7 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C153">
         <v>1994</v>
@@ -3988,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C154" s="1">
         <v>1995</v>
@@ -4011,7 +4020,7 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C155">
         <v>1996</v>
@@ -4034,7 +4043,7 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C156" s="1">
         <v>1997</v>
@@ -4057,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C157">
         <v>1998</v>
@@ -4080,7 +4089,7 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C158" s="1">
         <v>1999</v>
@@ -4103,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C159">
         <v>2000</v>
@@ -4126,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C160" s="1">
         <v>2001</v>
@@ -4149,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C161">
         <v>2002</v>
@@ -4172,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C162" s="1">
         <v>2003</v>
@@ -4195,7 +4204,7 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C163">
         <v>2004</v>
@@ -4218,7 +4227,7 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C164" s="1">
         <v>2005</v>
@@ -4241,7 +4250,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C165">
         <v>2006</v>
@@ -4264,7 +4273,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C166" s="1">
         <v>2007</v>
@@ -4287,7 +4296,7 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C167">
         <v>2008</v>
@@ -4310,7 +4319,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C168" s="1">
         <v>2009</v>
@@ -4333,7 +4342,7 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C169">
         <v>2010</v>
@@ -4356,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C170" s="1">
         <v>2011</v>
@@ -4379,7 +4388,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C171">
         <v>2012</v>
@@ -4402,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C172" s="1">
         <v>2013</v>
@@ -4425,7 +4434,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C173">
         <v>2014</v>
@@ -4448,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C174" s="1">
         <v>2015</v>
@@ -4471,7 +4480,7 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C175">
         <v>2016</v>
@@ -4494,7 +4503,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C176" s="1">
         <v>2017</v>
@@ -4517,7 +4526,7 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C177">
         <v>2018</v>
@@ -4540,7 +4549,7 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C178" s="1">
         <v>1994</v>
@@ -4563,7 +4572,7 @@
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C179" s="1">
         <v>1995</v>
@@ -4586,7 +4595,7 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C180" s="1">
         <v>1996</v>
@@ -4609,7 +4618,7 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C181" s="1">
         <v>1997</v>
@@ -4632,7 +4641,7 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C182" s="1">
         <v>1998</v>
@@ -4655,7 +4664,7 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C183" s="1">
         <v>1999</v>
@@ -4678,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C184" s="1">
         <v>2000</v>
@@ -4701,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C185" s="1">
         <v>2001</v>
@@ -4724,7 +4733,7 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C186" s="1">
         <v>2002</v>
@@ -4747,7 +4756,7 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C187" s="1">
         <v>2003</v>
@@ -4770,7 +4779,7 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C188" s="1">
         <v>2004</v>
@@ -4793,7 +4802,7 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C189" s="1">
         <v>2005</v>
@@ -4816,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C190" s="1">
         <v>2006</v>
@@ -4839,7 +4848,7 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C191" s="1">
         <v>2007</v>
@@ -4862,7 +4871,7 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C192" s="1">
         <v>2008</v>
@@ -4885,7 +4894,7 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C193" s="1">
         <v>2009</v>
@@ -4908,7 +4917,7 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C194" s="1">
         <v>2010</v>
@@ -4931,7 +4940,7 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C195" s="1">
         <v>2011</v>
@@ -4954,7 +4963,7 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C196" s="1">
         <v>2012</v>
@@ -4977,7 +4986,7 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C197" s="1">
         <v>2013</v>
@@ -5000,7 +5009,7 @@
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C198" s="1">
         <v>2014</v>
@@ -5023,7 +5032,7 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C199" s="1">
         <v>2015</v>
@@ -5046,7 +5055,7 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C200" s="1">
         <v>2016</v>
@@ -5069,7 +5078,7 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C201" s="1">
         <v>2017</v>
@@ -5092,7 +5101,7 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C202" s="1">
         <v>2018</v>
@@ -5115,7 +5124,7 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C203" s="1">
         <v>1994</v>
@@ -5138,7 +5147,7 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C204" s="1">
         <v>1995</v>
@@ -5161,7 +5170,7 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C205" s="1">
         <v>1996</v>
@@ -5184,7 +5193,7 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C206" s="1">
         <v>1997</v>
@@ -5207,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C207" s="1">
         <v>1998</v>
@@ -5230,7 +5239,7 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C208" s="1">
         <v>1999</v>
@@ -5253,7 +5262,7 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C209" s="1">
         <v>2000</v>
@@ -5276,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C210" s="1">
         <v>2001</v>
@@ -5299,7 +5308,7 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C211" s="1">
         <v>2002</v>
@@ -5322,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C212" s="1">
         <v>2003</v>
@@ -5345,7 +5354,7 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C213" s="1">
         <v>2004</v>
@@ -5368,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C214" s="1">
         <v>2005</v>
@@ -5391,7 +5400,7 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C215" s="1">
         <v>2006</v>
@@ -5414,7 +5423,7 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C216" s="1">
         <v>2007</v>
@@ -5437,7 +5446,7 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C217" s="1">
         <v>2008</v>
@@ -5460,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C218" s="1">
         <v>2009</v>
@@ -5483,7 +5492,7 @@
         <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C219" s="1">
         <v>2010</v>
@@ -5506,7 +5515,7 @@
         <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C220" s="1">
         <v>2011</v>
@@ -5529,7 +5538,7 @@
         <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C221" s="1">
         <v>2012</v>
@@ -5552,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C222" s="1">
         <v>2013</v>
@@ -5575,7 +5584,7 @@
         <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C223" s="1">
         <v>2014</v>
@@ -5598,7 +5607,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C224" s="1">
         <v>2015</v>
@@ -5621,7 +5630,7 @@
         <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C225" s="1">
         <v>2016</v>
@@ -5644,7 +5653,7 @@
         <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C226" s="1">
         <v>2017</v>
@@ -5667,7 +5676,7 @@
         <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C227" s="1">
         <v>2018</v>
@@ -5690,7 +5699,7 @@
         <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C228" s="1">
         <v>1994</v>
@@ -5713,7 +5722,7 @@
         <v>22</v>
       </c>
       <c r="B229" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C229" s="1">
         <v>1995</v>
@@ -5736,7 +5745,7 @@
         <v>22</v>
       </c>
       <c r="B230" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C230" s="1">
         <v>1996</v>
@@ -5759,7 +5768,7 @@
         <v>22</v>
       </c>
       <c r="B231" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C231" s="1">
         <v>1997</v>
@@ -5782,7 +5791,7 @@
         <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C232" s="1">
         <v>1998</v>
@@ -5805,7 +5814,7 @@
         <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C233" s="1">
         <v>1999</v>
@@ -5828,7 +5837,7 @@
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C234" s="1">
         <v>2000</v>
@@ -5851,7 +5860,7 @@
         <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C235" s="1">
         <v>2001</v>
@@ -5874,7 +5883,7 @@
         <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C236" s="1">
         <v>2002</v>
@@ -5897,7 +5906,7 @@
         <v>22</v>
       </c>
       <c r="B237" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C237" s="1">
         <v>2003</v>
@@ -5920,7 +5929,7 @@
         <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C238" s="1">
         <v>2004</v>
@@ -5943,7 +5952,7 @@
         <v>22</v>
       </c>
       <c r="B239" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C239" s="1">
         <v>2005</v>
@@ -5966,7 +5975,7 @@
         <v>22</v>
       </c>
       <c r="B240" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C240" s="1">
         <v>2006</v>
@@ -5989,7 +5998,7 @@
         <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C241" s="1">
         <v>2007</v>
@@ -6012,7 +6021,7 @@
         <v>22</v>
       </c>
       <c r="B242" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C242" s="1">
         <v>2008</v>
@@ -6035,7 +6044,7 @@
         <v>22</v>
       </c>
       <c r="B243" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C243" s="1">
         <v>2009</v>
@@ -6058,7 +6067,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C244" s="1">
         <v>2010</v>
@@ -6081,7 +6090,7 @@
         <v>22</v>
       </c>
       <c r="B245" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C245" s="1">
         <v>2011</v>
@@ -6104,7 +6113,7 @@
         <v>22</v>
       </c>
       <c r="B246" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C246" s="1">
         <v>2012</v>
@@ -6127,7 +6136,7 @@
         <v>22</v>
       </c>
       <c r="B247" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C247" s="1">
         <v>2013</v>
@@ -6150,7 +6159,7 @@
         <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C248" s="1">
         <v>2014</v>
@@ -6173,7 +6182,7 @@
         <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C249" s="1">
         <v>2015</v>
@@ -6196,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C250" s="1">
         <v>2016</v>
@@ -6219,7 +6228,7 @@
         <v>22</v>
       </c>
       <c r="B251" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C251" s="1">
         <v>2017</v>
@@ -6242,7 +6251,7 @@
         <v>22</v>
       </c>
       <c r="B252" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C252" s="1">
         <v>2018</v>
@@ -6262,10 +6271,10 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C253" s="1">
         <v>1994</v>
@@ -6285,10 +6294,10 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C254" s="1">
         <v>1995</v>
@@ -6308,10 +6317,10 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C255" s="1">
         <v>1996</v>
@@ -6331,10 +6340,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C256" s="1">
         <v>1997</v>
@@ -6354,10 +6363,10 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C257" s="1">
         <v>1998</v>
@@ -6377,10 +6386,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B258" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C258" s="1">
         <v>1999</v>
@@ -6400,10 +6409,10 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C259" s="1">
         <v>2000</v>
@@ -6423,10 +6432,10 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C260" s="1">
         <v>2001</v>
@@ -6446,10 +6455,10 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C261" s="1">
         <v>2002</v>
@@ -6469,10 +6478,10 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B262" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C262" s="1">
         <v>2003</v>
@@ -6492,10 +6501,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B263" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C263" s="1">
         <v>2004</v>
@@ -6515,10 +6524,10 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B264" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C264" s="1">
         <v>2005</v>
@@ -6538,10 +6547,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B265" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C265" s="1">
         <v>2006</v>
@@ -6561,10 +6570,10 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B266" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C266" s="1">
         <v>2007</v>
@@ -6584,10 +6593,10 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B267" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C267" s="1">
         <v>2008</v>
@@ -6607,10 +6616,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B268" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C268" s="1">
         <v>2009</v>
@@ -6630,10 +6639,10 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B269" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C269" s="1">
         <v>2010</v>
@@ -6653,10 +6662,10 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B270" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C270" s="1">
         <v>2011</v>
@@ -6676,10 +6685,10 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B271" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C271" s="1">
         <v>2012</v>
@@ -6699,10 +6708,10 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B272" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C272" s="1">
         <v>2013</v>
@@ -6722,10 +6731,10 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B273" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C273" s="1">
         <v>2014</v>
@@ -6745,10 +6754,10 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B274" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C274" s="1">
         <v>2015</v>
@@ -6768,10 +6777,10 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B275" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C275" s="1">
         <v>2016</v>
@@ -6791,10 +6800,10 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B276" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C276" s="1">
         <v>2017</v>
@@ -6814,10 +6823,10 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B277" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C277" s="1">
         <v>2018</v>
@@ -6837,10 +6846,10 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B278" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C278" s="1">
         <v>1994</v>
@@ -6860,10 +6869,10 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B279" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C279" s="1">
         <v>1995</v>
@@ -6883,10 +6892,10 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B280" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C280" s="1">
         <v>1996</v>
@@ -6906,10 +6915,10 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B281" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C281" s="1">
         <v>1997</v>
@@ -6929,10 +6938,10 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B282" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C282" s="1">
         <v>1998</v>
@@ -6952,10 +6961,10 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B283" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C283" s="1">
         <v>1999</v>
@@ -6975,10 +6984,10 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B284" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C284" s="1">
         <v>2000</v>
@@ -6998,10 +7007,10 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B285" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C285" s="1">
         <v>2001</v>
@@ -7021,10 +7030,10 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B286" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C286" s="1">
         <v>2002</v>
@@ -7044,10 +7053,10 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C287" s="1">
         <v>2003</v>
@@ -7067,10 +7076,10 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C288" s="1">
         <v>2004</v>
@@ -7090,10 +7099,10 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C289" s="1">
         <v>2005</v>
@@ -7113,10 +7122,10 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C290" s="1">
         <v>2006</v>
@@ -7136,10 +7145,10 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C291" s="1">
         <v>2007</v>
@@ -7159,10 +7168,10 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C292" s="1">
         <v>2008</v>
@@ -7182,10 +7191,10 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C293" s="1">
         <v>2009</v>
@@ -7205,10 +7214,10 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B294" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C294" s="1">
         <v>2010</v>
@@ -7228,10 +7237,10 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C295" s="1">
         <v>2011</v>
@@ -7251,10 +7260,10 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B296" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C296" s="1">
         <v>2012</v>
@@ -7274,10 +7283,10 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B297" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C297" s="1">
         <v>2013</v>
@@ -7297,10 +7306,10 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B298" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C298" s="1">
         <v>2014</v>
@@ -7320,10 +7329,10 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B299" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C299" s="1">
         <v>2015</v>
@@ -7343,10 +7352,10 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B300" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C300" s="1">
         <v>2016</v>
@@ -7366,10 +7375,10 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B301" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C301" s="1">
         <v>2017</v>
@@ -7389,10 +7398,10 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B302" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C302" s="1">
         <v>2018</v>
@@ -7407,6 +7416,581 @@
         <v>43556</v>
       </c>
       <c r="G302" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D303">
+        <v>92</v>
+      </c>
+      <c r="E303">
+        <v>95</v>
+      </c>
+      <c r="F303" s="2">
+        <v>34790</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D304">
+        <v>94</v>
+      </c>
+      <c r="E304">
+        <v>96</v>
+      </c>
+      <c r="F304" s="2">
+        <v>35156</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D305">
+        <v>96</v>
+      </c>
+      <c r="E305">
+        <v>100</v>
+      </c>
+      <c r="F305" s="2">
+        <v>35521</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B306" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D306">
+        <v>91</v>
+      </c>
+      <c r="E306">
+        <v>93</v>
+      </c>
+      <c r="F306" s="2">
+        <v>35886</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307" t="s">
+        <v>31</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D307">
+        <v>90</v>
+      </c>
+      <c r="E307">
+        <v>93</v>
+      </c>
+      <c r="F307" s="2">
+        <v>36251</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B308" t="s">
+        <v>31</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D308">
+        <v>90</v>
+      </c>
+      <c r="E308">
+        <v>92</v>
+      </c>
+      <c r="F308" s="2">
+        <v>36617</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" t="s">
+        <v>31</v>
+      </c>
+      <c r="C309" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D309">
+        <v>94</v>
+      </c>
+      <c r="E309">
+        <v>96</v>
+      </c>
+      <c r="F309" s="2">
+        <v>36982</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B310" t="s">
+        <v>31</v>
+      </c>
+      <c r="C310" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D310">
+        <v>91</v>
+      </c>
+      <c r="E310">
+        <v>93</v>
+      </c>
+      <c r="F310" s="2">
+        <v>37347</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D311">
+        <v>94</v>
+      </c>
+      <c r="E311">
+        <v>97</v>
+      </c>
+      <c r="F311" s="2">
+        <v>37895</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B312" t="s">
+        <v>31</v>
+      </c>
+      <c r="C312" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D312">
+        <v>94</v>
+      </c>
+      <c r="E312">
+        <v>96</v>
+      </c>
+      <c r="F312" s="2">
+        <v>38078</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D313">
+        <v>91</v>
+      </c>
+      <c r="E313">
+        <v>93</v>
+      </c>
+      <c r="F313" s="2">
+        <v>38443</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B314" t="s">
+        <v>31</v>
+      </c>
+      <c r="C314" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D314">
+        <v>92</v>
+      </c>
+      <c r="E314">
+        <v>94</v>
+      </c>
+      <c r="F314" s="2">
+        <v>38808</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B315" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D315">
+        <v>93</v>
+      </c>
+      <c r="E315">
+        <v>95</v>
+      </c>
+      <c r="F315" s="2">
+        <v>39173</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D316">
+        <v>92</v>
+      </c>
+      <c r="E316">
+        <v>95</v>
+      </c>
+      <c r="F316" s="2">
+        <v>39539</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D317">
+        <v>95</v>
+      </c>
+      <c r="E317">
+        <v>97</v>
+      </c>
+      <c r="F317" s="2">
+        <v>39904</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B318" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D318">
+        <v>96</v>
+      </c>
+      <c r="E318">
+        <v>100</v>
+      </c>
+      <c r="F318" s="2">
+        <v>40269</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B319" t="s">
+        <v>31</v>
+      </c>
+      <c r="C319" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D319">
+        <v>95</v>
+      </c>
+      <c r="E319">
+        <v>98</v>
+      </c>
+      <c r="F319" s="2">
+        <v>40664</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" t="s">
+        <v>31</v>
+      </c>
+      <c r="C320" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D320">
+        <v>93</v>
+      </c>
+      <c r="E320">
+        <v>95</v>
+      </c>
+      <c r="F320" s="2">
+        <v>41000</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B321" t="s">
+        <v>31</v>
+      </c>
+      <c r="C321" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D321">
+        <v>93</v>
+      </c>
+      <c r="E321">
+        <v>95</v>
+      </c>
+      <c r="F321" s="2">
+        <v>41365</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B322" t="s">
+        <v>31</v>
+      </c>
+      <c r="C322" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D322">
+        <v>89</v>
+      </c>
+      <c r="E322">
+        <v>92</v>
+      </c>
+      <c r="F322" s="2">
+        <v>41852</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B323" t="s">
+        <v>31</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D323">
+        <v>94</v>
+      </c>
+      <c r="E323">
+        <v>96</v>
+      </c>
+      <c r="F323" s="2">
+        <v>42095</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B324" t="s">
+        <v>31</v>
+      </c>
+      <c r="C324" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D324">
+        <v>95</v>
+      </c>
+      <c r="E324">
+        <v>97</v>
+      </c>
+      <c r="F324" s="2">
+        <v>42461</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D325">
+        <v>98</v>
+      </c>
+      <c r="E325">
+        <v>100</v>
+      </c>
+      <c r="F325" s="2">
+        <v>42826</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B326" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D326">
+        <v>96</v>
+      </c>
+      <c r="E326">
+        <v>98</v>
+      </c>
+      <c r="F326" s="2">
+        <v>43191</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B327" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D327">
+        <v>98</v>
+      </c>
+      <c r="E327">
+        <v>100</v>
+      </c>
+      <c r="F327" s="2">
+        <v>43556</v>
+      </c>
+      <c r="G327" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCC07F-34BF-4359-B204-5833DC8A3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5638926-B2B4-4F60-95EB-FE585165D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="33">
   <si>
     <t>Vintage</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Médoc</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Comtesse de Lalande Pauillac</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1073,25 +1076,25 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="D27">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E27">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2">
-        <v>43983</v>
+        <v>34790</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1101,17 +1104,17 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
-        <v>1994</v>
+      <c r="C28">
+        <v>1995</v>
       </c>
       <c r="D28">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>18</v>
@@ -1124,8 +1127,8 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29">
-        <v>1995</v>
+      <c r="C29" s="1">
+        <v>1996</v>
       </c>
       <c r="D29">
         <v>94</v>
@@ -1134,7 +1137,7 @@
         <v>96</v>
       </c>
       <c r="F29" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>18</v>
@@ -1147,17 +1150,17 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1">
-        <v>1996</v>
+      <c r="C30">
+        <v>1997</v>
       </c>
       <c r="D30">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E30">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F30" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>18</v>
@@ -1170,17 +1173,17 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
-        <v>1997</v>
+      <c r="C31" s="1">
+        <v>1998</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>18</v>
@@ -1193,17 +1196,17 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
-        <v>1998</v>
+      <c r="C32">
+        <v>1999</v>
       </c>
       <c r="D32">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>18</v>
@@ -1216,17 +1219,17 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
-        <v>1999</v>
+      <c r="C33" s="1">
+        <v>2000</v>
       </c>
       <c r="D33">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E33">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>18</v>
@@ -1239,17 +1242,17 @@
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
-        <v>2000</v>
+      <c r="C34">
+        <v>2001</v>
       </c>
       <c r="D34">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>18</v>
@@ -1262,17 +1265,17 @@
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
-        <v>2001</v>
+      <c r="C35" s="1">
+        <v>2002</v>
       </c>
       <c r="D35">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E35">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>18</v>
@@ -1285,17 +1288,17 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1">
-        <v>2002</v>
+      <c r="C36">
+        <v>2003</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E36">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>18</v>
@@ -1308,17 +1311,17 @@
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
-        <v>2003</v>
+      <c r="C37" s="1">
+        <v>2004</v>
       </c>
       <c r="D37">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>18</v>
@@ -1331,17 +1334,17 @@
       <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
-        <v>2004</v>
+      <c r="C38">
+        <v>2005</v>
       </c>
       <c r="D38">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E38">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>18</v>
@@ -1354,17 +1357,17 @@
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39">
-        <v>2005</v>
+      <c r="C39" s="1">
+        <v>2006</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F39" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>18</v>
@@ -1377,17 +1380,17 @@
       <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1">
-        <v>2006</v>
+      <c r="C40">
+        <v>2007</v>
       </c>
       <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40">
         <v>93</v>
       </c>
-      <c r="E40">
-        <v>96</v>
-      </c>
       <c r="F40" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>18</v>
@@ -1400,17 +1403,17 @@
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C41">
-        <v>2007</v>
+      <c r="C41" s="1">
+        <v>2008</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E41">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>18</v>
@@ -1423,17 +1426,17 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="1">
-        <v>2008</v>
+      <c r="C42">
+        <v>2009</v>
       </c>
       <c r="D42">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>18</v>
@@ -1446,8 +1449,8 @@
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43">
-        <v>2009</v>
+      <c r="C43" s="1">
+        <v>2010</v>
       </c>
       <c r="D43">
         <v>98</v>
@@ -1456,7 +1459,7 @@
         <v>100</v>
       </c>
       <c r="F43" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>18</v>
@@ -1469,17 +1472,17 @@
       <c r="B44" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="1">
-        <v>2010</v>
+      <c r="C44">
+        <v>2011</v>
       </c>
       <c r="D44">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>18</v>
@@ -1492,17 +1495,17 @@
       <c r="B45" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
-        <v>2011</v>
+      <c r="C45" s="1">
+        <v>2012</v>
       </c>
       <c r="D45">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>18</v>
@@ -1515,17 +1518,17 @@
       <c r="B46" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="1">
-        <v>2012</v>
+      <c r="C46">
+        <v>2013</v>
       </c>
       <c r="D46">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E46">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>18</v>
@@ -1538,20 +1541,20 @@
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47">
-        <v>2013</v>
+      <c r="C47" s="1">
+        <v>2014</v>
       </c>
       <c r="D47">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E47">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1561,8 +1564,8 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="1">
-        <v>2014</v>
+      <c r="C48">
+        <v>2015</v>
       </c>
       <c r="D48">
         <v>95</v>
@@ -1571,7 +1574,7 @@
         <v>97</v>
       </c>
       <c r="F48" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
@@ -1584,17 +1587,17 @@
       <c r="B49" t="s">
         <v>31</v>
       </c>
-      <c r="C49">
-        <v>2015</v>
+      <c r="C49" s="1">
+        <v>2016</v>
       </c>
       <c r="D49">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E49">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F49" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>16</v>
@@ -1607,20 +1610,20 @@
       <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="1">
-        <v>2016</v>
+      <c r="C50">
+        <v>2017</v>
       </c>
       <c r="D50">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1630,43 +1633,43 @@
       <c r="B51" t="s">
         <v>31</v>
       </c>
-      <c r="C51">
-        <v>2017</v>
+      <c r="C51" s="1">
+        <v>2018</v>
       </c>
       <c r="D51">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E51">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F51" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>24</v>
+      <c r="A52" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="1">
-        <v>2018</v>
+      <c r="C52">
+        <v>1994</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1676,17 +1679,17 @@
       <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53">
-        <v>1994</v>
+      <c r="C53" s="1">
+        <v>1995</v>
       </c>
       <c r="D53">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E53">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>18</v>
@@ -1699,17 +1702,17 @@
       <c r="B54" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="1">
-        <v>1995</v>
+      <c r="C54">
+        <v>1996</v>
       </c>
       <c r="D54">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E54">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>18</v>
@@ -1722,17 +1725,17 @@
       <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="C55">
-        <v>1996</v>
+      <c r="C55" s="1">
+        <v>1997</v>
       </c>
       <c r="D55">
+        <v>90</v>
+      </c>
+      <c r="E55">
         <v>92</v>
       </c>
-      <c r="E55">
-        <v>94</v>
-      </c>
       <c r="F55" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>18</v>
@@ -1745,17 +1748,17 @@
       <c r="B56" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="1">
-        <v>1997</v>
+      <c r="C56">
+        <v>1998</v>
       </c>
       <c r="D56">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F56" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>18</v>
@@ -1768,17 +1771,17 @@
       <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="C57">
-        <v>1998</v>
+      <c r="C57" s="1">
+        <v>1999</v>
       </c>
       <c r="D57">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>18</v>
@@ -1791,17 +1794,17 @@
       <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="1">
-        <v>1999</v>
+      <c r="C58">
+        <v>2000</v>
       </c>
       <c r="D58">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E58">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F58" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>18</v>
@@ -1814,17 +1817,17 @@
       <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="C59">
-        <v>2000</v>
+      <c r="C59" s="1">
+        <v>2001</v>
       </c>
       <c r="D59">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E59">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>18</v>
@@ -1837,17 +1840,17 @@
       <c r="B60" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="1">
-        <v>2001</v>
+      <c r="C60">
+        <v>2002</v>
       </c>
       <c r="D60">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E60">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>18</v>
@@ -1860,17 +1863,17 @@
       <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61">
-        <v>2002</v>
+      <c r="C61" s="1">
+        <v>2003</v>
       </c>
       <c r="D61">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>18</v>
@@ -1883,17 +1886,17 @@
       <c r="B62" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="1">
-        <v>2003</v>
+      <c r="C62">
+        <v>2004</v>
       </c>
       <c r="D62">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E62">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>18</v>
@@ -1906,17 +1909,17 @@
       <c r="B63" t="s">
         <v>31</v>
       </c>
-      <c r="C63">
-        <v>2004</v>
+      <c r="C63" s="1">
+        <v>2005</v>
       </c>
       <c r="D63">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E63">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F63" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>18</v>
@@ -1929,17 +1932,17 @@
       <c r="B64" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="1">
-        <v>2005</v>
+      <c r="C64">
+        <v>2006</v>
       </c>
       <c r="D64">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F64" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>18</v>
@@ -1952,17 +1955,17 @@
       <c r="B65" t="s">
         <v>31</v>
       </c>
-      <c r="C65">
-        <v>2006</v>
+      <c r="C65" s="1">
+        <v>2007</v>
       </c>
       <c r="D65">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>18</v>
@@ -1975,17 +1978,17 @@
       <c r="B66" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="1">
-        <v>2007</v>
+      <c r="C66">
+        <v>2008</v>
       </c>
       <c r="D66">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>18</v>
@@ -1998,17 +2001,17 @@
       <c r="B67" t="s">
         <v>31</v>
       </c>
-      <c r="C67">
-        <v>2008</v>
+      <c r="C67" s="1">
+        <v>2009</v>
       </c>
       <c r="D67">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>18</v>
@@ -2021,17 +2024,17 @@
       <c r="B68" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="1">
-        <v>2009</v>
+      <c r="C68">
+        <v>2010</v>
       </c>
       <c r="D68">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>18</v>
@@ -2044,17 +2047,17 @@
       <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="C69">
-        <v>2010</v>
+      <c r="C69" s="1">
+        <v>2011</v>
       </c>
       <c r="D69">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>18</v>
@@ -2067,17 +2070,17 @@
       <c r="B70" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="1">
-        <v>2011</v>
+      <c r="C70">
+        <v>2012</v>
       </c>
       <c r="D70">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>18</v>
@@ -2090,17 +2093,17 @@
       <c r="B71" t="s">
         <v>31</v>
       </c>
-      <c r="C71">
-        <v>2012</v>
+      <c r="C71" s="1">
+        <v>2013</v>
       </c>
       <c r="D71">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E71">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>18</v>
@@ -2113,20 +2116,20 @@
       <c r="B72" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="1">
-        <v>2013</v>
+      <c r="C72">
+        <v>2014</v>
       </c>
       <c r="D72">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E72">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2136,17 +2139,17 @@
       <c r="B73" t="s">
         <v>31</v>
       </c>
-      <c r="C73">
-        <v>2014</v>
+      <c r="C73" s="1">
+        <v>2015</v>
       </c>
       <c r="D73">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E73">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>16</v>
@@ -2159,17 +2162,17 @@
       <c r="B74" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="1">
-        <v>2015</v>
+      <c r="C74">
+        <v>2016</v>
       </c>
       <c r="D74">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>16</v>
@@ -2182,20 +2185,20 @@
       <c r="B75" t="s">
         <v>31</v>
       </c>
-      <c r="C75">
-        <v>2016</v>
+      <c r="C75" s="1">
+        <v>2017</v>
       </c>
       <c r="D75">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2205,8 +2208,8 @@
       <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="1">
-        <v>2017</v>
+      <c r="C76">
+        <v>2018</v>
       </c>
       <c r="D76">
         <v>97</v>
@@ -2215,7 +2218,7 @@
         <v>99</v>
       </c>
       <c r="F76" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>19</v>
@@ -2223,25 +2226,25 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77">
-        <v>2018</v>
+        <v>30</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1994</v>
       </c>
       <c r="D77">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E77">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F77" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2251,17 +2254,17 @@
       <c r="B78" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="1">
-        <v>1994</v>
+      <c r="C78">
+        <v>1995</v>
       </c>
       <c r="D78">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E78">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>18</v>
@@ -2274,17 +2277,17 @@
       <c r="B79" t="s">
         <v>30</v>
       </c>
-      <c r="C79">
-        <v>1995</v>
+      <c r="C79" s="1">
+        <v>1996</v>
       </c>
       <c r="D79">
+        <v>89</v>
+      </c>
+      <c r="E79">
         <v>90</v>
       </c>
-      <c r="E79">
-        <v>92</v>
-      </c>
       <c r="F79" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>18</v>
@@ -2297,17 +2300,17 @@
       <c r="B80" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="1">
-        <v>1996</v>
+      <c r="C80">
+        <v>1997</v>
       </c>
       <c r="D80">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>18</v>
@@ -2320,17 +2323,17 @@
       <c r="B81" t="s">
         <v>30</v>
       </c>
-      <c r="C81">
-        <v>1997</v>
+      <c r="C81" s="1">
+        <v>1998</v>
       </c>
       <c r="D81">
         <v>90</v>
       </c>
       <c r="E81">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>18</v>
@@ -2343,17 +2346,17 @@
       <c r="B82" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="1">
-        <v>1998</v>
+      <c r="C82">
+        <v>1999</v>
       </c>
       <c r="D82">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F82" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>18</v>
@@ -2366,17 +2369,17 @@
       <c r="B83" t="s">
         <v>30</v>
       </c>
-      <c r="C83">
-        <v>1999</v>
+      <c r="C83" s="1">
+        <v>2000</v>
       </c>
       <c r="D83">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E83">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F83" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>18</v>
@@ -2389,17 +2392,17 @@
       <c r="B84" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="1">
-        <v>2000</v>
+      <c r="C84">
+        <v>2001</v>
       </c>
       <c r="D84">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>18</v>
@@ -2412,17 +2415,17 @@
       <c r="B85" t="s">
         <v>30</v>
       </c>
-      <c r="C85">
-        <v>2001</v>
+      <c r="C85" s="1">
+        <v>2002</v>
       </c>
       <c r="D85">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E85">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>18</v>
@@ -2435,17 +2438,17 @@
       <c r="B86" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="1">
-        <v>2002</v>
+      <c r="C86">
+        <v>2003</v>
       </c>
       <c r="D86">
         <v>89</v>
       </c>
       <c r="E86">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>18</v>
@@ -2458,17 +2461,17 @@
       <c r="B87" t="s">
         <v>30</v>
       </c>
-      <c r="C87">
-        <v>2003</v>
+      <c r="C87" s="1">
+        <v>2004</v>
       </c>
       <c r="D87">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E87">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>18</v>
@@ -2481,17 +2484,17 @@
       <c r="B88" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="1">
-        <v>2004</v>
+      <c r="C88">
+        <v>2005</v>
       </c>
       <c r="D88">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E88">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>18</v>
@@ -2504,17 +2507,17 @@
       <c r="B89" t="s">
         <v>30</v>
       </c>
-      <c r="C89">
-        <v>2005</v>
+      <c r="C89" s="1">
+        <v>2006</v>
       </c>
       <c r="D89">
+        <v>92</v>
+      </c>
+      <c r="E89">
         <v>95</v>
       </c>
-      <c r="E89">
-        <v>98</v>
-      </c>
       <c r="F89" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>18</v>
@@ -2527,17 +2530,17 @@
       <c r="B90" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="1">
-        <v>2006</v>
+      <c r="C90">
+        <v>2007</v>
       </c>
       <c r="D90">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E90">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F90" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>18</v>
@@ -2550,17 +2553,17 @@
       <c r="B91" t="s">
         <v>30</v>
       </c>
-      <c r="C91">
-        <v>2007</v>
+      <c r="C91" s="1">
+        <v>2008</v>
       </c>
       <c r="D91">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E91">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>18</v>
@@ -2573,17 +2576,17 @@
       <c r="B92" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="1">
-        <v>2008</v>
+      <c r="C92">
+        <v>2009</v>
       </c>
       <c r="D92">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E92">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>18</v>
@@ -2596,17 +2599,17 @@
       <c r="B93" t="s">
         <v>30</v>
       </c>
-      <c r="C93">
-        <v>2009</v>
+      <c r="C93" s="1">
+        <v>2010</v>
       </c>
       <c r="D93">
+        <v>96</v>
+      </c>
+      <c r="E93">
         <v>98</v>
       </c>
-      <c r="E93">
-        <v>100</v>
-      </c>
       <c r="F93" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>18</v>
@@ -2619,17 +2622,17 @@
       <c r="B94" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="1">
-        <v>2010</v>
+      <c r="C94">
+        <v>2011</v>
       </c>
       <c r="D94">
+        <v>94</v>
+      </c>
+      <c r="E94">
         <v>96</v>
       </c>
-      <c r="E94">
-        <v>98</v>
-      </c>
       <c r="F94" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>18</v>
@@ -2642,8 +2645,8 @@
       <c r="B95" t="s">
         <v>30</v>
       </c>
-      <c r="C95">
-        <v>2011</v>
+      <c r="C95" s="1">
+        <v>2012</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2652,7 +2655,7 @@
         <v>96</v>
       </c>
       <c r="F95" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>18</v>
@@ -2665,17 +2668,17 @@
       <c r="B96" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="1">
-        <v>2012</v>
+      <c r="C96">
+        <v>2013</v>
       </c>
       <c r="D96">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E96">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>18</v>
@@ -2688,20 +2691,20 @@
       <c r="B97" t="s">
         <v>30</v>
       </c>
-      <c r="C97">
-        <v>2013</v>
+      <c r="C97" s="1">
+        <v>2014</v>
       </c>
       <c r="D97">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E97">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2711,17 +2714,17 @@
       <c r="B98" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="1">
-        <v>2014</v>
+      <c r="C98">
+        <v>2015</v>
       </c>
       <c r="D98">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E98">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>16</v>
@@ -2734,8 +2737,8 @@
       <c r="B99" t="s">
         <v>30</v>
       </c>
-      <c r="C99">
-        <v>2015</v>
+      <c r="C99" s="1">
+        <v>2016</v>
       </c>
       <c r="D99">
         <v>97</v>
@@ -2744,7 +2747,7 @@
         <v>99</v>
       </c>
       <c r="F99" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>16</v>
@@ -2757,20 +2760,20 @@
       <c r="B100" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="1">
-        <v>2016</v>
+      <c r="C100">
+        <v>2017</v>
       </c>
       <c r="D100">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E100">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2780,17 +2783,17 @@
       <c r="B101" t="s">
         <v>30</v>
       </c>
-      <c r="C101">
-        <v>2017</v>
+      <c r="C101" s="1">
+        <v>2018</v>
       </c>
       <c r="D101">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E101">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>19</v>
@@ -2798,25 +2801,25 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="1">
-        <v>2018</v>
+      <c r="C102">
+        <v>1994</v>
       </c>
       <c r="D102">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E102">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2826,8 +2829,8 @@
       <c r="B103" t="s">
         <v>30</v>
       </c>
-      <c r="C103">
-        <v>1994</v>
+      <c r="C103" s="1">
+        <v>1995</v>
       </c>
       <c r="D103">
         <v>89</v>
@@ -2836,7 +2839,7 @@
         <v>92</v>
       </c>
       <c r="F103" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>18</v>
@@ -2849,17 +2852,17 @@
       <c r="B104" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="1">
-        <v>1995</v>
+      <c r="C104">
+        <v>1996</v>
       </c>
       <c r="D104">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E104">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>18</v>
@@ -2872,17 +2875,17 @@
       <c r="B105" t="s">
         <v>30</v>
       </c>
-      <c r="C105">
-        <v>1996</v>
+      <c r="C105" s="1">
+        <v>1997</v>
       </c>
       <c r="D105">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E105">
         <v>94</v>
       </c>
       <c r="F105" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>18</v>
@@ -2895,17 +2898,17 @@
       <c r="B106" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="1">
-        <v>1997</v>
+      <c r="C106">
+        <v>1998</v>
       </c>
       <c r="D106">
         <v>91</v>
       </c>
       <c r="E106">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>18</v>
@@ -2918,17 +2921,17 @@
       <c r="B107" t="s">
         <v>30</v>
       </c>
-      <c r="C107">
-        <v>1998</v>
+      <c r="C107" s="1">
+        <v>1999</v>
       </c>
       <c r="D107">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E107">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>18</v>
@@ -2941,17 +2944,17 @@
       <c r="B108" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="1">
-        <v>1999</v>
+      <c r="C108">
+        <v>2000</v>
       </c>
       <c r="D108">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E108">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>18</v>
@@ -2964,17 +2967,17 @@
       <c r="B109" t="s">
         <v>30</v>
       </c>
-      <c r="C109">
-        <v>2000</v>
+      <c r="C109" s="1">
+        <v>2001</v>
       </c>
       <c r="D109">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E109">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>18</v>
@@ -2987,17 +2990,17 @@
       <c r="B110" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="1">
-        <v>2001</v>
+      <c r="C110">
+        <v>2002</v>
       </c>
       <c r="D110">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E110">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>18</v>
@@ -3010,17 +3013,17 @@
       <c r="B111" t="s">
         <v>30</v>
       </c>
-      <c r="C111">
-        <v>2002</v>
+      <c r="C111" s="1">
+        <v>2003</v>
       </c>
       <c r="D111">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E111">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>18</v>
@@ -3033,17 +3036,17 @@
       <c r="B112" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="1">
-        <v>2003</v>
+      <c r="C112">
+        <v>2004</v>
       </c>
       <c r="D112">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E112">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F112" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>18</v>
@@ -3056,17 +3059,17 @@
       <c r="B113" t="s">
         <v>30</v>
       </c>
-      <c r="C113">
-        <v>2004</v>
+      <c r="C113" s="1">
+        <v>2005</v>
       </c>
       <c r="D113">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E113">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F113" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>18</v>
@@ -3079,17 +3082,17 @@
       <c r="B114" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="1">
-        <v>2005</v>
+      <c r="C114">
+        <v>2006</v>
       </c>
       <c r="D114">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E114">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F114" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>18</v>
@@ -3102,17 +3105,17 @@
       <c r="B115" t="s">
         <v>30</v>
       </c>
-      <c r="C115">
-        <v>2006</v>
+      <c r="C115" s="1">
+        <v>2007</v>
       </c>
       <c r="D115">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E115">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>18</v>
@@ -3125,17 +3128,17 @@
       <c r="B116" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="1">
-        <v>2007</v>
+      <c r="C116">
+        <v>2008</v>
       </c>
       <c r="D116">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E116">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>18</v>
@@ -3148,17 +3151,17 @@
       <c r="B117" t="s">
         <v>30</v>
       </c>
-      <c r="C117">
-        <v>2008</v>
+      <c r="C117" s="1">
+        <v>2009</v>
       </c>
       <c r="D117">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E117">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>18</v>
@@ -3171,17 +3174,17 @@
       <c r="B118" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="1">
-        <v>2009</v>
+      <c r="C118">
+        <v>2010</v>
       </c>
       <c r="D118">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E118">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>18</v>
@@ -3194,17 +3197,17 @@
       <c r="B119" t="s">
         <v>30</v>
       </c>
-      <c r="C119">
-        <v>2010</v>
+      <c r="C119" s="1">
+        <v>2011</v>
       </c>
       <c r="D119">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E119">
         <v>100</v>
       </c>
       <c r="F119" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>18</v>
@@ -3217,17 +3220,17 @@
       <c r="B120" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="1">
-        <v>2011</v>
+      <c r="C120">
+        <v>2012</v>
       </c>
       <c r="D120">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E120">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>18</v>
@@ -3240,17 +3243,17 @@
       <c r="B121" t="s">
         <v>30</v>
       </c>
-      <c r="C121">
-        <v>2012</v>
+      <c r="C121" s="1">
+        <v>2013</v>
       </c>
       <c r="D121">
+        <v>93</v>
+      </c>
+      <c r="E121">
         <v>95</v>
       </c>
-      <c r="E121">
-        <v>97</v>
-      </c>
       <c r="F121" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>18</v>
@@ -3263,8 +3266,8 @@
       <c r="B122" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="1">
-        <v>2013</v>
+      <c r="C122">
+        <v>2014</v>
       </c>
       <c r="D122">
         <v>93</v>
@@ -3273,10 +3276,10 @@
         <v>95</v>
       </c>
       <c r="F122" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3286,17 +3289,17 @@
       <c r="B123" t="s">
         <v>30</v>
       </c>
-      <c r="C123">
-        <v>2014</v>
+      <c r="C123" s="1">
+        <v>2015</v>
       </c>
       <c r="D123">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E123">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>16</v>
@@ -3309,17 +3312,17 @@
       <c r="B124" t="s">
         <v>30</v>
       </c>
-      <c r="C124" s="1">
-        <v>2015</v>
+      <c r="C124">
+        <v>2016</v>
       </c>
       <c r="D124">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E124">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F124" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>16</v>
@@ -3332,20 +3335,20 @@
       <c r="B125" t="s">
         <v>30</v>
       </c>
-      <c r="C125">
-        <v>2016</v>
+      <c r="C125" s="1">
+        <v>2017</v>
       </c>
       <c r="D125">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E125">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3355,17 +3358,17 @@
       <c r="B126" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="1">
-        <v>2017</v>
+      <c r="C126">
+        <v>2018</v>
       </c>
       <c r="D126">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E126">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>19</v>
@@ -3373,25 +3376,25 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
-      </c>
-      <c r="C127">
-        <v>2018</v>
+        <v>31</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1994</v>
       </c>
       <c r="D127">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E127">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3401,17 +3404,17 @@
       <c r="B128" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="1">
-        <v>1994</v>
+      <c r="C128">
+        <v>1995</v>
       </c>
       <c r="D128">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E128">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>18</v>
@@ -3424,17 +3427,17 @@
       <c r="B129" t="s">
         <v>31</v>
       </c>
-      <c r="C129">
-        <v>1995</v>
+      <c r="C129" s="1">
+        <v>1996</v>
       </c>
       <c r="D129">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E129">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>18</v>
@@ -3447,17 +3450,17 @@
       <c r="B130" t="s">
         <v>31</v>
       </c>
-      <c r="C130" s="1">
-        <v>1996</v>
+      <c r="C130">
+        <v>1997</v>
       </c>
       <c r="D130">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E130">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F130" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>18</v>
@@ -3470,17 +3473,17 @@
       <c r="B131" t="s">
         <v>31</v>
       </c>
-      <c r="C131">
-        <v>1997</v>
+      <c r="C131" s="1">
+        <v>1998</v>
       </c>
       <c r="D131">
         <v>90</v>
       </c>
       <c r="E131">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>18</v>
@@ -3493,17 +3496,17 @@
       <c r="B132" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="1">
-        <v>1998</v>
+      <c r="C132">
+        <v>1999</v>
       </c>
       <c r="D132">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E132">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>18</v>
@@ -3516,17 +3519,17 @@
       <c r="B133" t="s">
         <v>31</v>
       </c>
-      <c r="C133">
-        <v>1999</v>
+      <c r="C133" s="1">
+        <v>2000</v>
       </c>
       <c r="D133">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E133">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>18</v>
@@ -3539,17 +3542,17 @@
       <c r="B134" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="1">
-        <v>2000</v>
+      <c r="C134">
+        <v>2001</v>
       </c>
       <c r="D134">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E134">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>18</v>
@@ -3562,8 +3565,8 @@
       <c r="B135" t="s">
         <v>31</v>
       </c>
-      <c r="C135">
-        <v>2001</v>
+      <c r="C135" s="1">
+        <v>2002</v>
       </c>
       <c r="D135">
         <v>91</v>
@@ -3572,7 +3575,7 @@
         <v>93</v>
       </c>
       <c r="F135" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>18</v>
@@ -3585,17 +3588,17 @@
       <c r="B136" t="s">
         <v>31</v>
       </c>
-      <c r="C136" s="1">
-        <v>2002</v>
+      <c r="C136">
+        <v>2003</v>
       </c>
       <c r="D136">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E136">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>18</v>
@@ -3608,17 +3611,17 @@
       <c r="B137" t="s">
         <v>31</v>
       </c>
-      <c r="C137">
-        <v>2003</v>
+      <c r="C137" s="1">
+        <v>2004</v>
       </c>
       <c r="D137">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E137">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F137" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>18</v>
@@ -3631,17 +3634,17 @@
       <c r="B138" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="1">
-        <v>2004</v>
+      <c r="C138">
+        <v>2005</v>
       </c>
       <c r="D138">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E138">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>18</v>
@@ -3654,17 +3657,17 @@
       <c r="B139" t="s">
         <v>31</v>
       </c>
-      <c r="C139">
-        <v>2005</v>
+      <c r="C139" s="1">
+        <v>2006</v>
       </c>
       <c r="D139">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E139">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F139" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>18</v>
@@ -3677,17 +3680,17 @@
       <c r="B140" t="s">
         <v>31</v>
       </c>
-      <c r="C140" s="1">
-        <v>2006</v>
+      <c r="C140">
+        <v>2007</v>
       </c>
       <c r="D140">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E140">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>18</v>
@@ -3700,17 +3703,17 @@
       <c r="B141" t="s">
         <v>31</v>
       </c>
-      <c r="C141">
-        <v>2007</v>
+      <c r="C141" s="1">
+        <v>2008</v>
       </c>
       <c r="D141">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E141">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F141" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>18</v>
@@ -3723,17 +3726,17 @@
       <c r="B142" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="1">
-        <v>2008</v>
+      <c r="C142">
+        <v>2009</v>
       </c>
       <c r="D142">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E142">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>18</v>
@@ -3746,17 +3749,17 @@
       <c r="B143" t="s">
         <v>31</v>
       </c>
-      <c r="C143">
-        <v>2009</v>
+      <c r="C143" s="1">
+        <v>2010</v>
       </c>
       <c r="D143">
+        <v>96</v>
+      </c>
+      <c r="E143">
         <v>98</v>
       </c>
-      <c r="E143">
-        <v>100</v>
-      </c>
       <c r="F143" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>18</v>
@@ -3769,17 +3772,17 @@
       <c r="B144" t="s">
         <v>31</v>
       </c>
-      <c r="C144" s="1">
-        <v>2010</v>
+      <c r="C144">
+        <v>2011</v>
       </c>
       <c r="D144">
+        <v>94</v>
+      </c>
+      <c r="E144">
         <v>96</v>
       </c>
-      <c r="E144">
-        <v>98</v>
-      </c>
       <c r="F144" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>18</v>
@@ -3792,17 +3795,17 @@
       <c r="B145" t="s">
         <v>31</v>
       </c>
-      <c r="C145">
-        <v>2011</v>
+      <c r="C145" s="1">
+        <v>2012</v>
       </c>
       <c r="D145">
+        <v>92</v>
+      </c>
+      <c r="E145">
         <v>94</v>
       </c>
-      <c r="E145">
-        <v>96</v>
-      </c>
       <c r="F145" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>18</v>
@@ -3815,17 +3818,17 @@
       <c r="B146" t="s">
         <v>31</v>
       </c>
-      <c r="C146" s="1">
-        <v>2012</v>
+      <c r="C146">
+        <v>2013</v>
       </c>
       <c r="D146">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E146">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F146" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>18</v>
@@ -3838,20 +3841,20 @@
       <c r="B147" t="s">
         <v>31</v>
       </c>
-      <c r="C147">
-        <v>2013</v>
+      <c r="C147" s="1">
+        <v>2014</v>
       </c>
       <c r="D147">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E147">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F147" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3861,17 +3864,17 @@
       <c r="B148" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="1">
-        <v>2014</v>
+      <c r="C148">
+        <v>2015</v>
       </c>
       <c r="D148">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E148">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>16</v>
@@ -3884,17 +3887,17 @@
       <c r="B149" t="s">
         <v>31</v>
       </c>
-      <c r="C149">
-        <v>2015</v>
+      <c r="C149" s="1">
+        <v>2016</v>
       </c>
       <c r="D149">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E149">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F149" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>16</v>
@@ -3907,20 +3910,20 @@
       <c r="B150" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="1">
-        <v>2016</v>
+      <c r="C150">
+        <v>2017</v>
       </c>
       <c r="D150">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E150">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F150" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3930,17 +3933,17 @@
       <c r="B151" t="s">
         <v>31</v>
       </c>
-      <c r="C151">
-        <v>2017</v>
+      <c r="C151" s="1">
+        <v>2018</v>
       </c>
       <c r="D151">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E151">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>19</v>
@@ -3948,25 +3951,25 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
         <v>31</v>
       </c>
-      <c r="C152" s="1">
-        <v>2018</v>
+      <c r="C152">
+        <v>1994</v>
       </c>
       <c r="D152">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E152">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F152" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3976,17 +3979,17 @@
       <c r="B153" t="s">
         <v>31</v>
       </c>
-      <c r="C153">
-        <v>1994</v>
+      <c r="C153" s="1">
+        <v>1995</v>
       </c>
       <c r="D153">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E153">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F153" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>18</v>
@@ -3999,17 +4002,17 @@
       <c r="B154" t="s">
         <v>31</v>
       </c>
-      <c r="C154" s="1">
-        <v>1995</v>
+      <c r="C154">
+        <v>1996</v>
       </c>
       <c r="D154">
+        <v>92</v>
+      </c>
+      <c r="E154">
         <v>94</v>
       </c>
-      <c r="E154">
-        <v>96</v>
-      </c>
       <c r="F154" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>18</v>
@@ -4022,17 +4025,17 @@
       <c r="B155" t="s">
         <v>31</v>
       </c>
-      <c r="C155">
-        <v>1996</v>
+      <c r="C155" s="1">
+        <v>1997</v>
       </c>
       <c r="D155">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E155">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F155" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>18</v>
@@ -4045,17 +4048,17 @@
       <c r="B156" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="1">
-        <v>1997</v>
+      <c r="C156">
+        <v>1998</v>
       </c>
       <c r="D156">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E156">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F156" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>18</v>
@@ -4068,17 +4071,17 @@
       <c r="B157" t="s">
         <v>31</v>
       </c>
-      <c r="C157">
-        <v>1998</v>
+      <c r="C157" s="1">
+        <v>1999</v>
       </c>
       <c r="D157">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E157">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F157" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>18</v>
@@ -4091,17 +4094,17 @@
       <c r="B158" t="s">
         <v>31</v>
       </c>
-      <c r="C158" s="1">
-        <v>1999</v>
+      <c r="C158">
+        <v>2000</v>
       </c>
       <c r="D158">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E158">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F158" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>18</v>
@@ -4114,17 +4117,17 @@
       <c r="B159" t="s">
         <v>31</v>
       </c>
-      <c r="C159">
-        <v>2000</v>
+      <c r="C159" s="1">
+        <v>2001</v>
       </c>
       <c r="D159">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E159">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F159" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>18</v>
@@ -4137,8 +4140,8 @@
       <c r="B160" t="s">
         <v>31</v>
       </c>
-      <c r="C160" s="1">
-        <v>2001</v>
+      <c r="C160">
+        <v>2002</v>
       </c>
       <c r="D160">
         <v>92</v>
@@ -4147,7 +4150,7 @@
         <v>94</v>
       </c>
       <c r="F160" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>18</v>
@@ -4160,17 +4163,17 @@
       <c r="B161" t="s">
         <v>31</v>
       </c>
-      <c r="C161">
-        <v>2002</v>
+      <c r="C161" s="1">
+        <v>2003</v>
       </c>
       <c r="D161">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E161">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F161" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>18</v>
@@ -4183,17 +4186,17 @@
       <c r="B162" t="s">
         <v>31</v>
       </c>
-      <c r="C162" s="1">
-        <v>2003</v>
+      <c r="C162">
+        <v>2004</v>
       </c>
       <c r="D162">
+        <v>93</v>
+      </c>
+      <c r="E162">
         <v>95</v>
       </c>
-      <c r="E162">
-        <v>98</v>
-      </c>
       <c r="F162" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>18</v>
@@ -4206,17 +4209,17 @@
       <c r="B163" t="s">
         <v>31</v>
       </c>
-      <c r="C163">
-        <v>2004</v>
+      <c r="C163" s="1">
+        <v>2005</v>
       </c>
       <c r="D163">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E163">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F163" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>18</v>
@@ -4229,17 +4232,17 @@
       <c r="B164" t="s">
         <v>31</v>
       </c>
-      <c r="C164" s="1">
-        <v>2005</v>
+      <c r="C164">
+        <v>2006</v>
       </c>
       <c r="D164">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E164">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>18</v>
@@ -4252,17 +4255,17 @@
       <c r="B165" t="s">
         <v>31</v>
       </c>
-      <c r="C165">
-        <v>2006</v>
+      <c r="C165" s="1">
+        <v>2007</v>
       </c>
       <c r="D165">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E165">
         <v>94</v>
       </c>
       <c r="F165" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>18</v>
@@ -4275,17 +4278,17 @@
       <c r="B166" t="s">
         <v>31</v>
       </c>
-      <c r="C166" s="1">
-        <v>2007</v>
+      <c r="C166">
+        <v>2008</v>
       </c>
       <c r="D166">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E166">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F166" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>18</v>
@@ -4298,17 +4301,17 @@
       <c r="B167" t="s">
         <v>31</v>
       </c>
-      <c r="C167">
-        <v>2008</v>
+      <c r="C167" s="1">
+        <v>2009</v>
       </c>
       <c r="D167">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E167">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F167" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>18</v>
@@ -4321,8 +4324,8 @@
       <c r="B168" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="1">
-        <v>2009</v>
+      <c r="C168">
+        <v>2010</v>
       </c>
       <c r="D168">
         <v>98</v>
@@ -4331,7 +4334,7 @@
         <v>100</v>
       </c>
       <c r="F168" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>18</v>
@@ -4344,17 +4347,17 @@
       <c r="B169" t="s">
         <v>31</v>
       </c>
-      <c r="C169">
-        <v>2010</v>
+      <c r="C169" s="1">
+        <v>2011</v>
       </c>
       <c r="D169">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E169">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F169" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>18</v>
@@ -4367,17 +4370,17 @@
       <c r="B170" t="s">
         <v>31</v>
       </c>
-      <c r="C170" s="1">
-        <v>2011</v>
+      <c r="C170">
+        <v>2012</v>
       </c>
       <c r="D170">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E170">
         <v>95</v>
       </c>
       <c r="F170" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>18</v>
@@ -4390,17 +4393,17 @@
       <c r="B171" t="s">
         <v>31</v>
       </c>
-      <c r="C171">
-        <v>2012</v>
+      <c r="C171" s="1">
+        <v>2013</v>
       </c>
       <c r="D171">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E171">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F171" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>18</v>
@@ -4413,20 +4416,20 @@
       <c r="B172" t="s">
         <v>31</v>
       </c>
-      <c r="C172" s="1">
-        <v>2013</v>
+      <c r="C172">
+        <v>2014</v>
       </c>
       <c r="D172">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E172">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F172" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4436,17 +4439,17 @@
       <c r="B173" t="s">
         <v>31</v>
       </c>
-      <c r="C173">
-        <v>2014</v>
+      <c r="C173" s="1">
+        <v>2015</v>
       </c>
       <c r="D173">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E173">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>16</v>
@@ -4459,17 +4462,17 @@
       <c r="B174" t="s">
         <v>31</v>
       </c>
-      <c r="C174" s="1">
-        <v>2015</v>
+      <c r="C174">
+        <v>2016</v>
       </c>
       <c r="D174">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E174">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F174" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>16</v>
@@ -4482,20 +4485,20 @@
       <c r="B175" t="s">
         <v>31</v>
       </c>
-      <c r="C175">
-        <v>2016</v>
+      <c r="C175" s="1">
+        <v>2017</v>
       </c>
       <c r="D175">
+        <v>95</v>
+      </c>
+      <c r="E175">
         <v>97</v>
       </c>
-      <c r="E175">
-        <v>99</v>
-      </c>
       <c r="F175" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4505,17 +4508,17 @@
       <c r="B176" t="s">
         <v>31</v>
       </c>
-      <c r="C176" s="1">
-        <v>2017</v>
+      <c r="C176">
+        <v>2018</v>
       </c>
       <c r="D176">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E176">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F176" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>19</v>
@@ -4523,25 +4526,25 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177">
-        <v>2018</v>
+        <v>30</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1994</v>
       </c>
       <c r="D177">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E177">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F177" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4552,16 +4555,16 @@
         <v>30</v>
       </c>
       <c r="C178" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D178">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E178">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F178" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>18</v>
@@ -4575,16 +4578,16 @@
         <v>30</v>
       </c>
       <c r="C179" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D179">
         <v>92</v>
       </c>
       <c r="E179">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F179" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>18</v>
@@ -4598,16 +4601,16 @@
         <v>30</v>
       </c>
       <c r="C180" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D180">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E180">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F180" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>18</v>
@@ -4621,16 +4624,16 @@
         <v>30</v>
       </c>
       <c r="C181" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D181">
         <v>90</v>
       </c>
       <c r="E181">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F181" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>18</v>
@@ -4644,16 +4647,16 @@
         <v>30</v>
       </c>
       <c r="C182" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D182">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E182">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F182" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>18</v>
@@ -4667,16 +4670,16 @@
         <v>30</v>
       </c>
       <c r="C183" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D183">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E183">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F183" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>18</v>
@@ -4690,16 +4693,16 @@
         <v>30</v>
       </c>
       <c r="C184" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D184">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E184">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F184" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>18</v>
@@ -4713,16 +4716,16 @@
         <v>30</v>
       </c>
       <c r="C185" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D185">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E185">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F185" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>18</v>
@@ -4736,16 +4739,16 @@
         <v>30</v>
       </c>
       <c r="C186" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D186">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E186">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F186" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>18</v>
@@ -4759,16 +4762,16 @@
         <v>30</v>
       </c>
       <c r="C187" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D187">
+        <v>92</v>
+      </c>
+      <c r="E187">
         <v>94</v>
       </c>
-      <c r="E187">
-        <v>96</v>
-      </c>
       <c r="F187" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>18</v>
@@ -4782,16 +4785,16 @@
         <v>30</v>
       </c>
       <c r="C188" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D188">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E188">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F188" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>18</v>
@@ -4805,16 +4808,16 @@
         <v>30</v>
       </c>
       <c r="C189" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D189">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E189">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F189" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>18</v>
@@ -4828,16 +4831,16 @@
         <v>30</v>
       </c>
       <c r="C190" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D190">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E190">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F190" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>18</v>
@@ -4851,16 +4854,16 @@
         <v>30</v>
       </c>
       <c r="C191" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D191">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E191">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F191" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>18</v>
@@ -4874,16 +4877,16 @@
         <v>30</v>
       </c>
       <c r="C192" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D192">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E192">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F192" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>18</v>
@@ -4897,16 +4900,16 @@
         <v>30</v>
       </c>
       <c r="C193" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D193">
+        <v>94</v>
+      </c>
+      <c r="E193">
         <v>96</v>
       </c>
-      <c r="E193">
-        <v>100</v>
-      </c>
       <c r="F193" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>18</v>
@@ -4920,16 +4923,16 @@
         <v>30</v>
       </c>
       <c r="C194" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D194">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E194">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F194" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>18</v>
@@ -4943,16 +4946,16 @@
         <v>30</v>
       </c>
       <c r="C195" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D195">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E195">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F195" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>18</v>
@@ -4966,16 +4969,16 @@
         <v>30</v>
       </c>
       <c r="C196" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D196">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E196">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F196" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>18</v>
@@ -4989,19 +4992,19 @@
         <v>30</v>
       </c>
       <c r="C197" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D197">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E197">
         <v>93</v>
       </c>
       <c r="F197" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5012,16 +5015,16 @@
         <v>30</v>
       </c>
       <c r="C198" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D198">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E198">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F198" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>16</v>
@@ -5035,16 +5038,16 @@
         <v>30</v>
       </c>
       <c r="C199" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D199">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E199">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F199" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>16</v>
@@ -5058,19 +5061,19 @@
         <v>30</v>
       </c>
       <c r="C200" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D200">
+        <v>94</v>
+      </c>
+      <c r="E200">
         <v>96</v>
       </c>
-      <c r="E200">
-        <v>98</v>
-      </c>
       <c r="F200" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5081,16 +5084,16 @@
         <v>30</v>
       </c>
       <c r="C201" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D201">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E201">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F201" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>19</v>
@@ -5098,25 +5101,25 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
         <v>30</v>
       </c>
       <c r="C202" s="1">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D202">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E202">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F202" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5127,7 +5130,7 @@
         <v>30</v>
       </c>
       <c r="C203" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D203">
         <v>86</v>
@@ -5136,7 +5139,7 @@
         <v>88</v>
       </c>
       <c r="F203" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>18</v>
@@ -5150,16 +5153,16 @@
         <v>30</v>
       </c>
       <c r="C204" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D204">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E204">
         <v>88</v>
       </c>
       <c r="F204" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>18</v>
@@ -5173,16 +5176,16 @@
         <v>30</v>
       </c>
       <c r="C205" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D205">
+        <v>85</v>
+      </c>
+      <c r="E205">
         <v>87</v>
       </c>
-      <c r="E205">
-        <v>88</v>
-      </c>
       <c r="F205" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>18</v>
@@ -5196,16 +5199,16 @@
         <v>30</v>
       </c>
       <c r="C206" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D206">
         <v>85</v>
       </c>
       <c r="E206">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F206" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>18</v>
@@ -5219,16 +5222,16 @@
         <v>30</v>
       </c>
       <c r="C207" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D207">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E207">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F207" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>18</v>
@@ -5242,16 +5245,16 @@
         <v>30</v>
       </c>
       <c r="C208" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D208">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E208">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F208" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>18</v>
@@ -5265,16 +5268,16 @@
         <v>30</v>
       </c>
       <c r="C209" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D209">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E209">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F209" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>18</v>
@@ -5288,16 +5291,16 @@
         <v>30</v>
       </c>
       <c r="C210" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D210">
         <v>88</v>
       </c>
       <c r="E210">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F210" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>18</v>
@@ -5311,16 +5314,16 @@
         <v>30</v>
       </c>
       <c r="C211" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D211">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E211">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F211" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>18</v>
@@ -5334,7 +5337,7 @@
         <v>30</v>
       </c>
       <c r="C212" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D212">
         <v>90</v>
@@ -5343,7 +5346,7 @@
         <v>92</v>
       </c>
       <c r="F212" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>18</v>
@@ -5357,16 +5360,16 @@
         <v>30</v>
       </c>
       <c r="C213" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D213">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E213">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F213" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>18</v>
@@ -5380,16 +5383,16 @@
         <v>30</v>
       </c>
       <c r="C214" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D214">
+        <v>89</v>
+      </c>
+      <c r="E214">
         <v>91</v>
       </c>
-      <c r="E214">
-        <v>94</v>
-      </c>
       <c r="F214" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>18</v>
@@ -5403,16 +5406,16 @@
         <v>30</v>
       </c>
       <c r="C215" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D215">
+        <v>87</v>
+      </c>
+      <c r="E215">
         <v>89</v>
       </c>
-      <c r="E215">
-        <v>91</v>
-      </c>
       <c r="F215" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>18</v>
@@ -5426,16 +5429,16 @@
         <v>30</v>
       </c>
       <c r="C216" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D216">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E216">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F216" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>18</v>
@@ -5449,16 +5452,16 @@
         <v>30</v>
       </c>
       <c r="C217" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D217">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E217">
         <v>93</v>
       </c>
       <c r="F217" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>18</v>
@@ -5472,16 +5475,16 @@
         <v>30</v>
       </c>
       <c r="C218" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D218">
+        <v>89</v>
+      </c>
+      <c r="E218">
         <v>91</v>
       </c>
-      <c r="E218">
-        <v>93</v>
-      </c>
       <c r="F218" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>18</v>
@@ -5495,16 +5498,16 @@
         <v>30</v>
       </c>
       <c r="C219" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D219">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E219">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F219" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>18</v>
@@ -5518,16 +5521,16 @@
         <v>30</v>
       </c>
       <c r="C220" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D220">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E220">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F220" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>18</v>
@@ -5541,16 +5544,16 @@
         <v>30</v>
       </c>
       <c r="C221" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D221">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E221">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F221" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>18</v>
@@ -5564,19 +5567,19 @@
         <v>30</v>
       </c>
       <c r="C222" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D222">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E222">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F222" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5587,16 +5590,16 @@
         <v>30</v>
       </c>
       <c r="C223" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D223">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E223">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F223" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>16</v>
@@ -5610,16 +5613,16 @@
         <v>30</v>
       </c>
       <c r="C224" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D224">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E224">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F224" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>16</v>
@@ -5633,19 +5636,19 @@
         <v>30</v>
       </c>
       <c r="C225" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D225">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E225">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F225" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5656,16 +5659,16 @@
         <v>30</v>
       </c>
       <c r="C226" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D226">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E226">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F226" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>19</v>
@@ -5673,25 +5676,25 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C227" s="1">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D227">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E227">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F227" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5702,16 +5705,16 @@
         <v>31</v>
       </c>
       <c r="C228" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D228">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E228">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F228" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>18</v>
@@ -5725,16 +5728,16 @@
         <v>31</v>
       </c>
       <c r="C229" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D229">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E229">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F229" s="2">
-        <v>35156</v>
+        <v>35796</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>18</v>
@@ -5748,16 +5751,16 @@
         <v>31</v>
       </c>
       <c r="C230" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D230">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E230">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F230" s="2">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>18</v>
@@ -5771,16 +5774,16 @@
         <v>31</v>
       </c>
       <c r="C231" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D231">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E231">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F231" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>18</v>
@@ -5794,16 +5797,16 @@
         <v>31</v>
       </c>
       <c r="C232" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D232">
         <v>90</v>
       </c>
       <c r="E232">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F232" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G232" s="4" t="s">
         <v>18</v>
@@ -5817,16 +5820,16 @@
         <v>31</v>
       </c>
       <c r="C233" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D233">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E233">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F233" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>18</v>
@@ -5840,16 +5843,16 @@
         <v>31</v>
       </c>
       <c r="C234" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D234">
+        <v>90</v>
+      </c>
+      <c r="E234">
         <v>92</v>
       </c>
-      <c r="E234">
-        <v>94</v>
-      </c>
       <c r="F234" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>18</v>
@@ -5863,16 +5866,16 @@
         <v>31</v>
       </c>
       <c r="C235" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D235">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E235">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F235" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G235" s="4" t="s">
         <v>18</v>
@@ -5886,16 +5889,16 @@
         <v>31</v>
       </c>
       <c r="C236" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D236">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E236">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F236" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G236" s="4" t="s">
         <v>18</v>
@@ -5909,16 +5912,16 @@
         <v>31</v>
       </c>
       <c r="C237" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D237">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E237">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F237" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>18</v>
@@ -5932,16 +5935,16 @@
         <v>31</v>
       </c>
       <c r="C238" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D238">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E238">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F238" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>18</v>
@@ -5955,16 +5958,16 @@
         <v>31</v>
       </c>
       <c r="C239" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D239">
+        <v>91</v>
+      </c>
+      <c r="E239">
         <v>94</v>
       </c>
-      <c r="E239">
-        <v>96</v>
-      </c>
       <c r="F239" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G239" s="4" t="s">
         <v>18</v>
@@ -5978,16 +5981,16 @@
         <v>31</v>
       </c>
       <c r="C240" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D240">
         <v>91</v>
       </c>
       <c r="E240">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F240" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G240" s="4" t="s">
         <v>18</v>
@@ -6001,16 +6004,16 @@
         <v>31</v>
       </c>
       <c r="C241" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D241">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E241">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F241" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G241" s="4" t="s">
         <v>18</v>
@@ -6024,16 +6027,16 @@
         <v>31</v>
       </c>
       <c r="C242" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D242">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E242">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F242" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>18</v>
@@ -6047,16 +6050,16 @@
         <v>31</v>
       </c>
       <c r="C243" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D243">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E243">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F243" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>18</v>
@@ -6070,16 +6073,16 @@
         <v>31</v>
       </c>
       <c r="C244" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D244">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E244">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F244" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>18</v>
@@ -6093,16 +6096,16 @@
         <v>31</v>
       </c>
       <c r="C245" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D245">
         <v>92</v>
       </c>
       <c r="E245">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F245" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>18</v>
@@ -6116,16 +6119,16 @@
         <v>31</v>
       </c>
       <c r="C246" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D246">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E246">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F246" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G246" s="4" t="s">
         <v>18</v>
@@ -6139,19 +6142,19 @@
         <v>31</v>
       </c>
       <c r="C247" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D247">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E247">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F247" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6162,16 +6165,16 @@
         <v>31</v>
       </c>
       <c r="C248" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D248">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E248">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F248" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G248" s="4" t="s">
         <v>16</v>
@@ -6185,7 +6188,7 @@
         <v>31</v>
       </c>
       <c r="C249" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D249">
         <v>95</v>
@@ -6194,7 +6197,7 @@
         <v>97</v>
       </c>
       <c r="F249" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>16</v>
@@ -6208,19 +6211,19 @@
         <v>31</v>
       </c>
       <c r="C250" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D250">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E250">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F250" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6231,16 +6234,16 @@
         <v>31</v>
       </c>
       <c r="C251" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D251">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E251">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F251" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>19</v>
@@ -6248,25 +6251,25 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C252" s="1">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D252">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E252">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F252" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6277,16 +6280,16 @@
         <v>29</v>
       </c>
       <c r="C253" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D253">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E253">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F253" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G253" s="4" t="s">
         <v>18</v>
@@ -6300,16 +6303,16 @@
         <v>29</v>
       </c>
       <c r="C254" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D254">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E254">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F254" s="2">
-        <v>35156</v>
+        <v>35796</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>18</v>
@@ -6323,7 +6326,7 @@
         <v>29</v>
       </c>
       <c r="C255" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D255">
         <v>92</v>
@@ -6332,7 +6335,7 @@
         <v>94</v>
       </c>
       <c r="F255" s="2">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="G255" s="4" t="s">
         <v>18</v>
@@ -6346,16 +6349,16 @@
         <v>29</v>
       </c>
       <c r="C256" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D256">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E256">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F256" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G256" s="4" t="s">
         <v>18</v>
@@ -6369,16 +6372,16 @@
         <v>29</v>
       </c>
       <c r="C257" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D257">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E257">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F257" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>18</v>
@@ -6392,16 +6395,16 @@
         <v>29</v>
       </c>
       <c r="C258" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D258">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E258">
         <v>94</v>
       </c>
       <c r="F258" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>18</v>
@@ -6415,16 +6418,16 @@
         <v>29</v>
       </c>
       <c r="C259" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D259">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E259">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F259" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G259" s="4" t="s">
         <v>18</v>
@@ -6438,16 +6441,16 @@
         <v>29</v>
       </c>
       <c r="C260" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D260">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E260">
         <v>93</v>
       </c>
       <c r="F260" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G260" s="4" t="s">
         <v>18</v>
@@ -6461,16 +6464,16 @@
         <v>29</v>
       </c>
       <c r="C261" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D261">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E261">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F261" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G261" s="4" t="s">
         <v>18</v>
@@ -6484,16 +6487,16 @@
         <v>29</v>
       </c>
       <c r="C262" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D262">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E262">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F262" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G262" s="4" t="s">
         <v>18</v>
@@ -6507,16 +6510,16 @@
         <v>29</v>
       </c>
       <c r="C263" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D263">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E263">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F263" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G263" s="4" t="s">
         <v>18</v>
@@ -6530,16 +6533,16 @@
         <v>29</v>
       </c>
       <c r="C264" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D264">
+        <v>94</v>
+      </c>
+      <c r="E264">
         <v>96</v>
       </c>
-      <c r="E264">
-        <v>100</v>
-      </c>
       <c r="F264" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G264" s="4" t="s">
         <v>18</v>
@@ -6553,16 +6556,16 @@
         <v>29</v>
       </c>
       <c r="C265" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D265">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E265">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F265" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G265" s="4" t="s">
         <v>18</v>
@@ -6576,16 +6579,16 @@
         <v>29</v>
       </c>
       <c r="C266" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D266">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E266">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F266" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G266" s="4" t="s">
         <v>18</v>
@@ -6599,16 +6602,16 @@
         <v>29</v>
       </c>
       <c r="C267" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D267">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E267">
         <v>100</v>
       </c>
       <c r="F267" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G267" s="4" t="s">
         <v>18</v>
@@ -6622,16 +6625,16 @@
         <v>29</v>
       </c>
       <c r="C268" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D268">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E268">
         <v>100</v>
       </c>
       <c r="F268" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>18</v>
@@ -6645,16 +6648,16 @@
         <v>29</v>
       </c>
       <c r="C269" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D269">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E269">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F269" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G269" s="4" t="s">
         <v>18</v>
@@ -6668,16 +6671,16 @@
         <v>29</v>
       </c>
       <c r="C270" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D270">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E270">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F270" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G270" s="4" t="s">
         <v>18</v>
@@ -6691,16 +6694,16 @@
         <v>29</v>
       </c>
       <c r="C271" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D271">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E271">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F271" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G271" s="4" t="s">
         <v>18</v>
@@ -6714,19 +6717,19 @@
         <v>29</v>
       </c>
       <c r="C272" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D272">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E272">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F272" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6737,16 +6740,16 @@
         <v>29</v>
       </c>
       <c r="C273" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D273">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E273">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F273" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G273" s="4" t="s">
         <v>16</v>
@@ -6760,16 +6763,16 @@
         <v>29</v>
       </c>
       <c r="C274" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D274">
+        <v>96</v>
+      </c>
+      <c r="E274">
         <v>98</v>
       </c>
-      <c r="E274">
-        <v>100</v>
-      </c>
       <c r="F274" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G274" s="4" t="s">
         <v>16</v>
@@ -6783,19 +6786,19 @@
         <v>29</v>
       </c>
       <c r="C275" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D275">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E275">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F275" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6806,16 +6809,16 @@
         <v>29</v>
       </c>
       <c r="C276" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D276">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E276">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F276" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G276" s="4" t="s">
         <v>19</v>
@@ -6823,25 +6826,25 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C277" s="1">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D277">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E277">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F277" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6852,7 +6855,7 @@
         <v>30</v>
       </c>
       <c r="C278" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D278">
         <v>85</v>
@@ -6861,7 +6864,7 @@
         <v>87</v>
       </c>
       <c r="F278" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G278" s="4" t="s">
         <v>18</v>
@@ -6875,7 +6878,7 @@
         <v>30</v>
       </c>
       <c r="C279" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D279">
         <v>85</v>
@@ -6884,7 +6887,7 @@
         <v>87</v>
       </c>
       <c r="F279" s="2">
-        <v>35156</v>
+        <v>35796</v>
       </c>
       <c r="G279" s="4" t="s">
         <v>18</v>
@@ -6898,16 +6901,16 @@
         <v>30</v>
       </c>
       <c r="C280" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D280">
+        <v>83</v>
+      </c>
+      <c r="E280">
         <v>85</v>
       </c>
-      <c r="E280">
-        <v>87</v>
-      </c>
       <c r="F280" s="2">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="G280" s="4" t="s">
         <v>18</v>
@@ -6921,16 +6924,16 @@
         <v>30</v>
       </c>
       <c r="C281" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D281">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E281">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F281" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G281" s="4" t="s">
         <v>18</v>
@@ -6944,16 +6947,16 @@
         <v>30</v>
       </c>
       <c r="C282" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D282">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E282">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F282" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G282" s="4" t="s">
         <v>18</v>
@@ -6967,16 +6970,16 @@
         <v>30</v>
       </c>
       <c r="C283" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D283">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E283">
         <v>96</v>
       </c>
       <c r="F283" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G283" s="4" t="s">
         <v>18</v>
@@ -6990,16 +6993,16 @@
         <v>30</v>
       </c>
       <c r="C284" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D284">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E284">
         <v>96</v>
       </c>
       <c r="F284" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G284" s="4" t="s">
         <v>18</v>
@@ -7013,16 +7016,16 @@
         <v>30</v>
       </c>
       <c r="C285" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D285">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E285">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F285" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G285" s="4" t="s">
         <v>18</v>
@@ -7036,16 +7039,16 @@
         <v>30</v>
       </c>
       <c r="C286" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D286">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E286">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F286" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G286" s="4" t="s">
         <v>18</v>
@@ -7059,16 +7062,16 @@
         <v>30</v>
       </c>
       <c r="C287" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D287">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E287">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F287" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G287" s="4" t="s">
         <v>18</v>
@@ -7082,16 +7085,16 @@
         <v>30</v>
       </c>
       <c r="C288" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D288">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E288">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F288" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G288" s="4" t="s">
         <v>18</v>
@@ -7105,16 +7108,16 @@
         <v>30</v>
       </c>
       <c r="C289" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D289">
+        <v>96</v>
+      </c>
+      <c r="E289">
         <v>98</v>
       </c>
-      <c r="E289">
-        <v>100</v>
-      </c>
       <c r="F289" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G289" s="4" t="s">
         <v>18</v>
@@ -7128,16 +7131,16 @@
         <v>30</v>
       </c>
       <c r="C290" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D290">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E290">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F290" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G290" s="4" t="s">
         <v>18</v>
@@ -7151,16 +7154,16 @@
         <v>30</v>
       </c>
       <c r="C291" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D291">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E291">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F291" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G291" s="4" t="s">
         <v>18</v>
@@ -7174,16 +7177,16 @@
         <v>30</v>
       </c>
       <c r="C292" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D292">
         <v>96</v>
       </c>
       <c r="E292">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F292" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G292" s="4" t="s">
         <v>18</v>
@@ -7197,16 +7200,16 @@
         <v>30</v>
       </c>
       <c r="C293" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D293">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E293">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F293" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G293" s="4" t="s">
         <v>18</v>
@@ -7220,16 +7223,16 @@
         <v>30</v>
       </c>
       <c r="C294" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D294">
+        <v>93</v>
+      </c>
+      <c r="E294">
         <v>95</v>
       </c>
-      <c r="E294">
-        <v>98</v>
-      </c>
       <c r="F294" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G294" s="4" t="s">
         <v>18</v>
@@ -7243,16 +7246,16 @@
         <v>30</v>
       </c>
       <c r="C295" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D295">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E295">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F295" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G295" s="4" t="s">
         <v>18</v>
@@ -7266,16 +7269,16 @@
         <v>30</v>
       </c>
       <c r="C296" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D296">
+        <v>92</v>
+      </c>
+      <c r="E296">
         <v>94</v>
       </c>
-      <c r="E296">
-        <v>96</v>
-      </c>
       <c r="F296" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G296" s="4" t="s">
         <v>18</v>
@@ -7289,19 +7292,19 @@
         <v>30</v>
       </c>
       <c r="C297" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D297">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E297">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F297" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7312,16 +7315,16 @@
         <v>30</v>
       </c>
       <c r="C298" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D298">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E298">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F298" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G298" s="4" t="s">
         <v>16</v>
@@ -7335,16 +7338,16 @@
         <v>30</v>
       </c>
       <c r="C299" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D299">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E299">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F299" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G299" s="4" t="s">
         <v>16</v>
@@ -7358,19 +7361,19 @@
         <v>30</v>
       </c>
       <c r="C300" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D300">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E300">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F300" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7381,16 +7384,16 @@
         <v>30</v>
       </c>
       <c r="C301" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D301">
         <v>97</v>
       </c>
       <c r="E301">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F301" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>19</v>
@@ -7398,25 +7401,25 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B302" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C302" s="1">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D302">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E302">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F302" s="2">
-        <v>43556</v>
+        <v>34790</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7427,16 +7430,16 @@
         <v>31</v>
       </c>
       <c r="C303" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D303">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E303">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F303" s="2">
-        <v>34790</v>
+        <v>35156</v>
       </c>
       <c r="G303" s="4" t="s">
         <v>18</v>
@@ -7450,16 +7453,16 @@
         <v>31</v>
       </c>
       <c r="C304" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D304">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E304">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F304" s="2">
-        <v>35156</v>
+        <v>35521</v>
       </c>
       <c r="G304" s="4" t="s">
         <v>18</v>
@@ -7473,16 +7476,16 @@
         <v>31</v>
       </c>
       <c r="C305" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D305">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E305">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F305" s="2">
-        <v>35521</v>
+        <v>35886</v>
       </c>
       <c r="G305" s="4" t="s">
         <v>18</v>
@@ -7496,16 +7499,16 @@
         <v>31</v>
       </c>
       <c r="C306" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D306">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E306">
         <v>93</v>
       </c>
       <c r="F306" s="2">
-        <v>35886</v>
+        <v>36251</v>
       </c>
       <c r="G306" s="4" t="s">
         <v>18</v>
@@ -7519,16 +7522,16 @@
         <v>31</v>
       </c>
       <c r="C307" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D307">
         <v>90</v>
       </c>
       <c r="E307">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F307" s="2">
-        <v>36251</v>
+        <v>36617</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>18</v>
@@ -7542,16 +7545,16 @@
         <v>31</v>
       </c>
       <c r="C308" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D308">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E308">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F308" s="2">
-        <v>36617</v>
+        <v>36982</v>
       </c>
       <c r="G308" s="4" t="s">
         <v>18</v>
@@ -7565,16 +7568,16 @@
         <v>31</v>
       </c>
       <c r="C309" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D309">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E309">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F309" s="2">
-        <v>36982</v>
+        <v>37347</v>
       </c>
       <c r="G309" s="4" t="s">
         <v>18</v>
@@ -7588,16 +7591,16 @@
         <v>31</v>
       </c>
       <c r="C310" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D310">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E310">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F310" s="2">
-        <v>37347</v>
+        <v>37895</v>
       </c>
       <c r="G310" s="4" t="s">
         <v>18</v>
@@ -7611,16 +7614,16 @@
         <v>31</v>
       </c>
       <c r="C311" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D311">
         <v>94</v>
       </c>
       <c r="E311">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F311" s="2">
-        <v>37895</v>
+        <v>38078</v>
       </c>
       <c r="G311" s="4" t="s">
         <v>18</v>
@@ -7634,16 +7637,16 @@
         <v>31</v>
       </c>
       <c r="C312" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D312">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E312">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F312" s="2">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="G312" s="4" t="s">
         <v>18</v>
@@ -7657,16 +7660,16 @@
         <v>31</v>
       </c>
       <c r="C313" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D313">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E313">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F313" s="2">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="G313" s="4" t="s">
         <v>18</v>
@@ -7680,16 +7683,16 @@
         <v>31</v>
       </c>
       <c r="C314" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D314">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E314">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F314" s="2">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="G314" s="4" t="s">
         <v>18</v>
@@ -7703,16 +7706,16 @@
         <v>31</v>
       </c>
       <c r="C315" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D315">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E315">
         <v>95</v>
       </c>
       <c r="F315" s="2">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="G315" s="4" t="s">
         <v>18</v>
@@ -7726,16 +7729,16 @@
         <v>31</v>
       </c>
       <c r="C316" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D316">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E316">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F316" s="2">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>18</v>
@@ -7749,16 +7752,16 @@
         <v>31</v>
       </c>
       <c r="C317" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D317">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E317">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F317" s="2">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="G317" s="4" t="s">
         <v>18</v>
@@ -7772,16 +7775,16 @@
         <v>31</v>
       </c>
       <c r="C318" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D318">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E318">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F318" s="2">
-        <v>40269</v>
+        <v>40664</v>
       </c>
       <c r="G318" s="4" t="s">
         <v>18</v>
@@ -7795,16 +7798,16 @@
         <v>31</v>
       </c>
       <c r="C319" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D319">
+        <v>93</v>
+      </c>
+      <c r="E319">
         <v>95</v>
       </c>
-      <c r="E319">
-        <v>98</v>
-      </c>
       <c r="F319" s="2">
-        <v>40664</v>
+        <v>41000</v>
       </c>
       <c r="G319" s="4" t="s">
         <v>18</v>
@@ -7818,7 +7821,7 @@
         <v>31</v>
       </c>
       <c r="C320" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D320">
         <v>93</v>
@@ -7827,7 +7830,7 @@
         <v>95</v>
       </c>
       <c r="F320" s="2">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="G320" s="4" t="s">
         <v>18</v>
@@ -7841,16 +7844,16 @@
         <v>31</v>
       </c>
       <c r="C321" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D321">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E321">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F321" s="2">
-        <v>41365</v>
+        <v>41852</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>18</v>
@@ -7864,19 +7867,19 @@
         <v>31</v>
       </c>
       <c r="C322" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D322">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E322">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F322" s="2">
-        <v>41852</v>
+        <v>42095</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7887,16 +7890,16 @@
         <v>31</v>
       </c>
       <c r="C323" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D323">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E323">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F323" s="2">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="G323" s="4" t="s">
         <v>16</v>
@@ -7910,16 +7913,16 @@
         <v>31</v>
       </c>
       <c r="C324" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D324">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E324">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F324" s="2">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="G324" s="4" t="s">
         <v>16</v>
@@ -7933,19 +7936,19 @@
         <v>31</v>
       </c>
       <c r="C325" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D325">
+        <v>96</v>
+      </c>
+      <c r="E325">
         <v>98</v>
       </c>
-      <c r="E325">
-        <v>100</v>
-      </c>
       <c r="F325" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7956,16 +7959,16 @@
         <v>31</v>
       </c>
       <c r="C326" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D326">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E326">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F326" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="G326" s="4" t="s">
         <v>19</v>
@@ -7973,24 +7976,576 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B327" t="s">
         <v>31</v>
       </c>
       <c r="C327" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D327">
+        <v>91</v>
+      </c>
+      <c r="E327">
+        <v>94</v>
+      </c>
+      <c r="F327" s="2">
+        <v>34790</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D328">
+        <v>93</v>
+      </c>
+      <c r="E328">
+        <v>95</v>
+      </c>
+      <c r="F328" s="2">
+        <v>35156</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B329" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D329">
+        <v>94</v>
+      </c>
+      <c r="E329">
+        <v>97</v>
+      </c>
+      <c r="F329" s="2">
+        <v>35521</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B330" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D330">
+        <v>87</v>
+      </c>
+      <c r="E330">
+        <v>88</v>
+      </c>
+      <c r="F330" s="2">
+        <v>35886</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D331">
+        <v>85</v>
+      </c>
+      <c r="E331">
+        <v>88</v>
+      </c>
+      <c r="F331" s="2">
+        <v>36251</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B332" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D332">
+        <v>87</v>
+      </c>
+      <c r="E332">
+        <v>88</v>
+      </c>
+      <c r="F332" s="2">
+        <v>36617</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D333">
+        <v>95</v>
+      </c>
+      <c r="E333">
+        <v>97</v>
+      </c>
+      <c r="F333" s="2">
+        <v>36982</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D334">
+        <v>89</v>
+      </c>
+      <c r="E334">
+        <v>91</v>
+      </c>
+      <c r="F334" s="2">
+        <v>37347</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B335" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D335">
+        <v>92</v>
+      </c>
+      <c r="E335">
+        <v>94</v>
+      </c>
+      <c r="F335" s="2">
+        <v>37895</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B336" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D336">
+        <v>93</v>
+      </c>
+      <c r="E336">
+        <v>95</v>
+      </c>
+      <c r="F336" s="2">
+        <v>38078</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D337">
+        <v>91</v>
+      </c>
+      <c r="E337">
+        <v>94</v>
+      </c>
+      <c r="F337" s="2">
+        <v>38443</v>
+      </c>
+      <c r="G337" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D338">
+        <v>89</v>
+      </c>
+      <c r="E338">
+        <v>91</v>
+      </c>
+      <c r="F338" s="2">
+        <v>38808</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" t="s">
+        <v>31</v>
+      </c>
+      <c r="C339" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D339">
+        <v>94</v>
+      </c>
+      <c r="E339">
+        <v>96</v>
+      </c>
+      <c r="F339" s="2">
+        <v>39173</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" t="s">
+        <v>31</v>
+      </c>
+      <c r="C340" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D340">
+        <v>88</v>
+      </c>
+      <c r="E340">
+        <v>90</v>
+      </c>
+      <c r="F340" s="2">
+        <v>39539</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B341" t="s">
+        <v>31</v>
+      </c>
+      <c r="C341" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D341">
+        <v>94</v>
+      </c>
+      <c r="E341">
+        <v>96</v>
+      </c>
+      <c r="F341" s="2">
+        <v>39904</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" t="s">
+        <v>31</v>
+      </c>
+      <c r="C342" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D342">
+        <v>96</v>
+      </c>
+      <c r="E342">
+        <v>98</v>
+      </c>
+      <c r="F342" s="2">
+        <v>40269</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" t="s">
+        <v>31</v>
+      </c>
+      <c r="C343" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D343">
+        <v>92</v>
+      </c>
+      <c r="E343">
+        <v>95</v>
+      </c>
+      <c r="F343" s="2">
+        <v>40664</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" t="s">
+        <v>31</v>
+      </c>
+      <c r="C344" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D344">
+        <v>92</v>
+      </c>
+      <c r="E344">
+        <v>94</v>
+      </c>
+      <c r="F344" s="2">
+        <v>41000</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B345" t="s">
+        <v>31</v>
+      </c>
+      <c r="C345" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D345">
+        <v>91</v>
+      </c>
+      <c r="E345">
+        <v>93</v>
+      </c>
+      <c r="F345" s="2">
+        <v>41365</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B346" t="s">
+        <v>31</v>
+      </c>
+      <c r="C346" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D346">
+        <v>87</v>
+      </c>
+      <c r="E346">
+        <v>89</v>
+      </c>
+      <c r="F346" s="2">
+        <v>41852</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B347" t="s">
+        <v>31</v>
+      </c>
+      <c r="C347" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D347">
+        <v>93</v>
+      </c>
+      <c r="E347">
+        <v>95</v>
+      </c>
+      <c r="F347" s="2">
+        <v>42095</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D348">
+        <v>95</v>
+      </c>
+      <c r="E348">
+        <v>97</v>
+      </c>
+      <c r="F348" s="2">
+        <v>42461</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" t="s">
+        <v>31</v>
+      </c>
+      <c r="C349" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D349">
+        <v>96</v>
+      </c>
+      <c r="E349">
+        <v>98</v>
+      </c>
+      <c r="F349" s="2">
+        <v>42826</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" t="s">
+        <v>31</v>
+      </c>
+      <c r="C350" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D350">
+        <v>94</v>
+      </c>
+      <c r="E350">
+        <v>96</v>
+      </c>
+      <c r="F350" s="2">
+        <v>43191</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B351" t="s">
+        <v>31</v>
+      </c>
+      <c r="C351" s="1">
         <v>2018</v>
       </c>
-      <c r="D327">
-        <v>98</v>
-      </c>
-      <c r="E327">
-        <v>100</v>
-      </c>
-      <c r="F327" s="2">
+      <c r="D351">
+        <v>97</v>
+      </c>
+      <c r="E351">
+        <v>99</v>
+      </c>
+      <c r="F351" s="2">
         <v>43556</v>
       </c>
-      <c r="G327" s="4" t="s">
+      <c r="G351" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5638926-B2B4-4F60-95EB-FE585165D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F845E69-7629-4F97-BADB-70B21A56CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Rating" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="35">
   <si>
     <t>Vintage</t>
   </si>
@@ -97,22 +97,10 @@
     <t>Château Palmer</t>
   </si>
   <si>
-    <t>Château Lafite Rothschild Pauillac</t>
-  </si>
-  <si>
-    <t>Château Latour Pauillac</t>
-  </si>
-  <si>
     <t>Château Cheval Blanc</t>
   </si>
   <si>
-    <t>Petrus Pomerol</t>
-  </si>
-  <si>
     <t>Château Pavie</t>
-  </si>
-  <si>
-    <t>Château Léoville Las Cases Saint-Julien</t>
   </si>
   <si>
     <t>Pomerol</t>
@@ -124,7 +112,25 @@
     <t>Médoc</t>
   </si>
   <si>
-    <t>Château Pichon-Longueville Comtesse de Lalande Pauillac</t>
+    <t>Château Lafite Rothschild</t>
+  </si>
+  <si>
+    <t>Château Latour</t>
+  </si>
+  <si>
+    <t>Château Mouton Rothschild</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion</t>
+  </si>
+  <si>
+    <t>Petrus</t>
+  </si>
+  <si>
+    <t>Château Léoville Las Cases</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Comtesse de Lalande</t>
   </si>
 </sst>
 </file>
@@ -463,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -501,10 +507,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1994</v>
@@ -524,10 +530,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>1995</v>
@@ -547,10 +553,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1996</v>
@@ -570,10 +576,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>1997</v>
@@ -593,10 +599,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1998</v>
@@ -616,10 +622,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>1999</v>
@@ -639,10 +645,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>2000</v>
@@ -662,10 +668,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>2001</v>
@@ -685,10 +691,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>2002</v>
@@ -708,10 +714,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>2003</v>
@@ -731,10 +737,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2004</v>
@@ -754,10 +760,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>2005</v>
@@ -777,10 +783,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2006</v>
@@ -800,10 +806,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>2007</v>
@@ -823,10 +829,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>2008</v>
@@ -846,10 +852,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
@@ -869,10 +875,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2010</v>
@@ -892,10 +898,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>2011</v>
@@ -915,10 +921,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>2012</v>
@@ -938,10 +944,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>2013</v>
@@ -961,10 +967,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>2014</v>
@@ -984,10 +990,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>2015</v>
@@ -1007,10 +1013,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -1030,10 +1036,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>2017</v>
@@ -1053,10 +1059,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>2018</v>
@@ -1076,10 +1082,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>1994</v>
@@ -1099,10 +1105,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>1995</v>
@@ -1122,10 +1128,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>1996</v>
@@ -1145,10 +1151,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>1997</v>
@@ -1168,10 +1174,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <v>1998</v>
@@ -1191,10 +1197,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>1999</v>
@@ -1214,10 +1220,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <v>2000</v>
@@ -1237,10 +1243,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>2001</v>
@@ -1260,10 +1266,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>2002</v>
@@ -1283,10 +1289,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>2003</v>
@@ -1306,10 +1312,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
         <v>2004</v>
@@ -1329,10 +1335,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>2005</v>
@@ -1352,10 +1358,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1">
         <v>2006</v>
@@ -1375,10 +1381,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>2007</v>
@@ -1398,10 +1404,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
         <v>2008</v>
@@ -1421,10 +1427,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>2009</v>
@@ -1444,10 +1450,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1">
         <v>2010</v>
@@ -1467,10 +1473,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>2011</v>
@@ -1490,10 +1496,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1">
         <v>2012</v>
@@ -1513,10 +1519,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>2013</v>
@@ -1536,10 +1542,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
         <v>2014</v>
@@ -1559,10 +1565,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>2015</v>
@@ -1582,10 +1588,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1">
         <v>2016</v>
@@ -1605,10 +1611,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>2017</v>
@@ -1628,10 +1634,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
         <v>2018</v>
@@ -1651,10 +1657,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>1994</v>
@@ -1674,10 +1680,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1">
         <v>1995</v>
@@ -1697,10 +1703,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>1996</v>
@@ -1720,10 +1726,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
         <v>1997</v>
@@ -1743,10 +1749,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>1998</v>
@@ -1766,10 +1772,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1">
         <v>1999</v>
@@ -1789,10 +1795,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>2000</v>
@@ -1812,10 +1818,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1">
         <v>2001</v>
@@ -1835,10 +1841,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>2002</v>
@@ -1858,10 +1864,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1">
         <v>2003</v>
@@ -1881,10 +1887,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>2004</v>
@@ -1904,10 +1910,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1">
         <v>2005</v>
@@ -1927,10 +1933,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>2006</v>
@@ -1950,10 +1956,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1">
         <v>2007</v>
@@ -1973,10 +1979,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>2008</v>
@@ -1996,10 +2002,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1">
         <v>2009</v>
@@ -2019,10 +2025,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C68">
         <v>2010</v>
@@ -2042,10 +2048,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
         <v>2011</v>
@@ -2065,10 +2071,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C70">
         <v>2012</v>
@@ -2088,10 +2094,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C71" s="1">
         <v>2013</v>
@@ -2111,10 +2117,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>2014</v>
@@ -2134,10 +2140,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1">
         <v>2015</v>
@@ -2157,10 +2163,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>2016</v>
@@ -2180,10 +2186,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
         <v>2017</v>
@@ -2203,10 +2209,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>2018</v>
@@ -2226,10 +2232,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1">
         <v>1994</v>
@@ -2249,10 +2255,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C78">
         <v>1995</v>
@@ -2272,10 +2278,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
         <v>1996</v>
@@ -2295,10 +2301,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>1997</v>
@@ -2318,10 +2324,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C81" s="1">
         <v>1998</v>
@@ -2341,10 +2347,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C82">
         <v>1999</v>
@@ -2364,10 +2370,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C83" s="1">
         <v>2000</v>
@@ -2387,10 +2393,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C84">
         <v>2001</v>
@@ -2410,10 +2416,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1">
         <v>2002</v>
@@ -2433,10 +2439,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>2003</v>
@@ -2456,10 +2462,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C87" s="1">
         <v>2004</v>
@@ -2479,10 +2485,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>2005</v>
@@ -2502,10 +2508,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C89" s="1">
         <v>2006</v>
@@ -2525,10 +2531,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C90">
         <v>2007</v>
@@ -2548,10 +2554,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C91" s="1">
         <v>2008</v>
@@ -2571,10 +2577,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C92">
         <v>2009</v>
@@ -2594,10 +2600,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
         <v>2010</v>
@@ -2617,10 +2623,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>2011</v>
@@ -2640,10 +2646,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C95" s="1">
         <v>2012</v>
@@ -2663,10 +2669,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>2013</v>
@@ -2686,10 +2692,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C97" s="1">
         <v>2014</v>
@@ -2709,10 +2715,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C98">
         <v>2015</v>
@@ -2732,10 +2738,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C99" s="1">
         <v>2016</v>
@@ -2755,10 +2761,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C100">
         <v>2017</v>
@@ -2778,10 +2784,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1">
         <v>2018</v>
@@ -2804,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C102">
         <v>1994</v>
@@ -2827,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C103" s="1">
         <v>1995</v>
@@ -2850,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C104">
         <v>1996</v>
@@ -2873,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C105" s="1">
         <v>1997</v>
@@ -2896,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C106">
         <v>1998</v>
@@ -2919,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C107" s="1">
         <v>1999</v>
@@ -2942,7 +2948,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C108">
         <v>2000</v>
@@ -2965,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C109" s="1">
         <v>2001</v>
@@ -2988,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C110">
         <v>2002</v>
@@ -3011,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C111" s="1">
         <v>2003</v>
@@ -3034,7 +3040,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C112">
         <v>2004</v>
@@ -3057,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C113" s="1">
         <v>2005</v>
@@ -3080,7 +3086,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C114">
         <v>2006</v>
@@ -3103,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C115" s="1">
         <v>2007</v>
@@ -3126,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C116">
         <v>2008</v>
@@ -3149,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C117" s="1">
         <v>2009</v>
@@ -3172,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C118">
         <v>2010</v>
@@ -3195,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C119" s="1">
         <v>2011</v>
@@ -3218,7 +3224,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C120">
         <v>2012</v>
@@ -3241,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C121" s="1">
         <v>2013</v>
@@ -3264,7 +3270,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C122">
         <v>2014</v>
@@ -3287,7 +3293,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C123" s="1">
         <v>2015</v>
@@ -3310,7 +3316,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C124">
         <v>2016</v>
@@ -3333,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C125" s="1">
         <v>2017</v>
@@ -3356,7 +3362,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C126">
         <v>2018</v>
@@ -3379,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C127" s="1">
         <v>1994</v>
@@ -3402,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C128">
         <v>1995</v>
@@ -3425,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C129" s="1">
         <v>1996</v>
@@ -3448,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C130">
         <v>1997</v>
@@ -3471,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C131" s="1">
         <v>1998</v>
@@ -3494,7 +3500,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C132">
         <v>1999</v>
@@ -3517,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C133" s="1">
         <v>2000</v>
@@ -3540,7 +3546,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C134">
         <v>2001</v>
@@ -3563,7 +3569,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C135" s="1">
         <v>2002</v>
@@ -3586,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C136">
         <v>2003</v>
@@ -3609,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C137" s="1">
         <v>2004</v>
@@ -3632,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C138">
         <v>2005</v>
@@ -3655,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C139" s="1">
         <v>2006</v>
@@ -3678,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C140">
         <v>2007</v>
@@ -3701,7 +3707,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C141" s="1">
         <v>2008</v>
@@ -3724,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C142">
         <v>2009</v>
@@ -3747,7 +3753,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C143" s="1">
         <v>2010</v>
@@ -3770,7 +3776,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C144">
         <v>2011</v>
@@ -3793,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C145" s="1">
         <v>2012</v>
@@ -3816,7 +3822,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C146">
         <v>2013</v>
@@ -3839,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C147" s="1">
         <v>2014</v>
@@ -3862,7 +3868,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C148">
         <v>2015</v>
@@ -3885,7 +3891,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C149" s="1">
         <v>2016</v>
@@ -3908,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C150">
         <v>2017</v>
@@ -3931,7 +3937,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C151" s="1">
         <v>2018</v>
@@ -3951,10 +3957,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C152">
         <v>1994</v>
@@ -3974,10 +3980,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C153" s="1">
         <v>1995</v>
@@ -3997,10 +4003,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C154">
         <v>1996</v>
@@ -4020,10 +4026,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C155" s="1">
         <v>1997</v>
@@ -4043,10 +4049,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C156">
         <v>1998</v>
@@ -4066,10 +4072,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C157" s="1">
         <v>1999</v>
@@ -4089,10 +4095,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C158">
         <v>2000</v>
@@ -4112,10 +4118,10 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C159" s="1">
         <v>2001</v>
@@ -4135,10 +4141,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C160">
         <v>2002</v>
@@ -4158,10 +4164,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C161" s="1">
         <v>2003</v>
@@ -4181,10 +4187,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B162" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C162">
         <v>2004</v>
@@ -4204,10 +4210,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C163" s="1">
         <v>2005</v>
@@ -4227,10 +4233,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B164" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C164">
         <v>2006</v>
@@ -4250,10 +4256,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C165" s="1">
         <v>2007</v>
@@ -4273,10 +4279,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C166">
         <v>2008</v>
@@ -4296,10 +4302,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C167" s="1">
         <v>2009</v>
@@ -4319,10 +4325,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C168">
         <v>2010</v>
@@ -4342,10 +4348,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C169" s="1">
         <v>2011</v>
@@ -4365,10 +4371,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C170">
         <v>2012</v>
@@ -4388,10 +4394,10 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C171" s="1">
         <v>2013</v>
@@ -4411,10 +4417,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C172">
         <v>2014</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C173" s="1">
         <v>2015</v>
@@ -4457,10 +4463,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C174">
         <v>2016</v>
@@ -4480,10 +4486,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C175" s="1">
         <v>2017</v>
@@ -4503,10 +4509,10 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C176">
         <v>2018</v>
@@ -4529,7 +4535,7 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C177" s="1">
         <v>1994</v>
@@ -4552,7 +4558,7 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C178" s="1">
         <v>1995</v>
@@ -4575,7 +4581,7 @@
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C179" s="1">
         <v>1996</v>
@@ -4598,7 +4604,7 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C180" s="1">
         <v>1997</v>
@@ -4621,7 +4627,7 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C181" s="1">
         <v>1998</v>
@@ -4644,7 +4650,7 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C182" s="1">
         <v>1999</v>
@@ -4667,7 +4673,7 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C183" s="1">
         <v>2000</v>
@@ -4690,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C184" s="1">
         <v>2001</v>
@@ -4713,7 +4719,7 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C185" s="1">
         <v>2002</v>
@@ -4736,7 +4742,7 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C186" s="1">
         <v>2003</v>
@@ -4759,7 +4765,7 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C187" s="1">
         <v>2004</v>
@@ -4782,7 +4788,7 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C188" s="1">
         <v>2005</v>
@@ -4805,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C189" s="1">
         <v>2006</v>
@@ -4828,7 +4834,7 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C190" s="1">
         <v>2007</v>
@@ -4851,7 +4857,7 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C191" s="1">
         <v>2008</v>
@@ -4874,7 +4880,7 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C192" s="1">
         <v>2009</v>
@@ -4897,7 +4903,7 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C193" s="1">
         <v>2010</v>
@@ -4920,7 +4926,7 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C194" s="1">
         <v>2011</v>
@@ -4943,7 +4949,7 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C195" s="1">
         <v>2012</v>
@@ -4966,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C196" s="1">
         <v>2013</v>
@@ -4989,7 +4995,7 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C197" s="1">
         <v>2014</v>
@@ -5012,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C198" s="1">
         <v>2015</v>
@@ -5035,7 +5041,7 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C199" s="1">
         <v>2016</v>
@@ -5058,7 +5064,7 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C200" s="1">
         <v>2017</v>
@@ -5081,7 +5087,7 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C201" s="1">
         <v>2018</v>
@@ -5104,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C202" s="1">
         <v>1994</v>
@@ -5127,7 +5133,7 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C203" s="1">
         <v>1995</v>
@@ -5150,7 +5156,7 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C204" s="1">
         <v>1996</v>
@@ -5173,7 +5179,7 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C205" s="1">
         <v>1997</v>
@@ -5196,7 +5202,7 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C206" s="1">
         <v>1998</v>
@@ -5219,7 +5225,7 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C207" s="1">
         <v>1999</v>
@@ -5242,7 +5248,7 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C208" s="1">
         <v>2000</v>
@@ -5265,7 +5271,7 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C209" s="1">
         <v>2001</v>
@@ -5288,7 +5294,7 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C210" s="1">
         <v>2002</v>
@@ -5311,7 +5317,7 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C211" s="1">
         <v>2003</v>
@@ -5334,7 +5340,7 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C212" s="1">
         <v>2004</v>
@@ -5357,7 +5363,7 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C213" s="1">
         <v>2005</v>
@@ -5380,7 +5386,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C214" s="1">
         <v>2006</v>
@@ -5403,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C215" s="1">
         <v>2007</v>
@@ -5426,7 +5432,7 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C216" s="1">
         <v>2008</v>
@@ -5449,7 +5455,7 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C217" s="1">
         <v>2009</v>
@@ -5472,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C218" s="1">
         <v>2010</v>
@@ -5495,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C219" s="1">
         <v>2011</v>
@@ -5518,7 +5524,7 @@
         <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C220" s="1">
         <v>2012</v>
@@ -5541,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C221" s="1">
         <v>2013</v>
@@ -5564,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C222" s="1">
         <v>2014</v>
@@ -5587,7 +5593,7 @@
         <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C223" s="1">
         <v>2015</v>
@@ -5610,7 +5616,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C224" s="1">
         <v>2016</v>
@@ -5633,7 +5639,7 @@
         <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C225" s="1">
         <v>2017</v>
@@ -5656,7 +5662,7 @@
         <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C226" s="1">
         <v>2018</v>
@@ -5679,7 +5685,7 @@
         <v>22</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C227" s="1">
         <v>1994</v>
@@ -5702,7 +5708,7 @@
         <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C228" s="1">
         <v>1995</v>
@@ -5725,7 +5731,7 @@
         <v>22</v>
       </c>
       <c r="B229" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C229" s="1">
         <v>1996</v>
@@ -5748,7 +5754,7 @@
         <v>22</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C230" s="1">
         <v>1997</v>
@@ -5771,7 +5777,7 @@
         <v>22</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C231" s="1">
         <v>1998</v>
@@ -5794,7 +5800,7 @@
         <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C232" s="1">
         <v>1999</v>
@@ -5817,7 +5823,7 @@
         <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C233" s="1">
         <v>2000</v>
@@ -5840,7 +5846,7 @@
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C234" s="1">
         <v>2001</v>
@@ -5863,7 +5869,7 @@
         <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C235" s="1">
         <v>2002</v>
@@ -5886,7 +5892,7 @@
         <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C236" s="1">
         <v>2003</v>
@@ -5909,7 +5915,7 @@
         <v>22</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C237" s="1">
         <v>2004</v>
@@ -5932,7 +5938,7 @@
         <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C238" s="1">
         <v>2005</v>
@@ -5955,7 +5961,7 @@
         <v>22</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C239" s="1">
         <v>2006</v>
@@ -5978,7 +5984,7 @@
         <v>22</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C240" s="1">
         <v>2007</v>
@@ -6001,7 +6007,7 @@
         <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C241" s="1">
         <v>2008</v>
@@ -6024,7 +6030,7 @@
         <v>22</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C242" s="1">
         <v>2009</v>
@@ -6047,7 +6053,7 @@
         <v>22</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C243" s="1">
         <v>2010</v>
@@ -6070,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C244" s="1">
         <v>2011</v>
@@ -6093,7 +6099,7 @@
         <v>22</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C245" s="1">
         <v>2012</v>
@@ -6116,7 +6122,7 @@
         <v>22</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C246" s="1">
         <v>2013</v>
@@ -6139,7 +6145,7 @@
         <v>22</v>
       </c>
       <c r="B247" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C247" s="1">
         <v>2014</v>
@@ -6162,7 +6168,7 @@
         <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C248" s="1">
         <v>2015</v>
@@ -6185,7 +6191,7 @@
         <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C249" s="1">
         <v>2016</v>
@@ -6208,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C250" s="1">
         <v>2017</v>
@@ -6231,7 +6237,7 @@
         <v>22</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C251" s="1">
         <v>2018</v>
@@ -6251,10 +6257,10 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B252" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C252" s="1">
         <v>1994</v>
@@ -6274,10 +6280,10 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B253" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C253" s="1">
         <v>1995</v>
@@ -6297,10 +6303,10 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C254" s="1">
         <v>1996</v>
@@ -6320,10 +6326,10 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B255" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C255" s="1">
         <v>1997</v>
@@ -6343,10 +6349,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C256" s="1">
         <v>1998</v>
@@ -6366,10 +6372,10 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B257" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C257" s="1">
         <v>1999</v>
@@ -6389,10 +6395,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C258" s="1">
         <v>2000</v>
@@ -6412,10 +6418,10 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B259" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C259" s="1">
         <v>2001</v>
@@ -6435,10 +6441,10 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B260" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C260" s="1">
         <v>2002</v>
@@ -6458,10 +6464,10 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C261" s="1">
         <v>2003</v>
@@ -6481,10 +6487,10 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B262" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C262" s="1">
         <v>2004</v>
@@ -6504,10 +6510,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B263" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C263" s="1">
         <v>2005</v>
@@ -6527,10 +6533,10 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C264" s="1">
         <v>2006</v>
@@ -6550,10 +6556,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B265" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C265" s="1">
         <v>2007</v>
@@ -6573,10 +6579,10 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B266" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C266" s="1">
         <v>2008</v>
@@ -6596,10 +6602,10 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B267" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C267" s="1">
         <v>2009</v>
@@ -6619,10 +6625,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B268" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C268" s="1">
         <v>2010</v>
@@ -6642,10 +6648,10 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B269" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C269" s="1">
         <v>2011</v>
@@ -6665,10 +6671,10 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B270" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C270" s="1">
         <v>2012</v>
@@ -6688,10 +6694,10 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C271" s="1">
         <v>2013</v>
@@ -6711,10 +6717,10 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C272" s="1">
         <v>2014</v>
@@ -6734,10 +6740,10 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B273" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C273" s="1">
         <v>2015</v>
@@ -6757,10 +6763,10 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B274" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C274" s="1">
         <v>2016</v>
@@ -6780,10 +6786,10 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B275" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C275" s="1">
         <v>2017</v>
@@ -6803,10 +6809,10 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C276" s="1">
         <v>2018</v>
@@ -6826,10 +6832,10 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B277" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C277" s="1">
         <v>1994</v>
@@ -6849,10 +6855,10 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C278" s="1">
         <v>1995</v>
@@ -6872,10 +6878,10 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B279" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C279" s="1">
         <v>1996</v>
@@ -6895,10 +6901,10 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B280" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C280" s="1">
         <v>1997</v>
@@ -6918,10 +6924,10 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B281" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C281" s="1">
         <v>1998</v>
@@ -6941,10 +6947,10 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B282" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C282" s="1">
         <v>1999</v>
@@ -6964,10 +6970,10 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B283" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C283" s="1">
         <v>2000</v>
@@ -6987,10 +6993,10 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C284" s="1">
         <v>2001</v>
@@ -7010,10 +7016,10 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C285" s="1">
         <v>2002</v>
@@ -7033,10 +7039,10 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B286" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C286" s="1">
         <v>2003</v>
@@ -7056,10 +7062,10 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B287" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C287" s="1">
         <v>2004</v>
@@ -7079,10 +7085,10 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C288" s="1">
         <v>2005</v>
@@ -7102,10 +7108,10 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C289" s="1">
         <v>2006</v>
@@ -7125,10 +7131,10 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B290" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C290" s="1">
         <v>2007</v>
@@ -7148,10 +7154,10 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B291" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C291" s="1">
         <v>2008</v>
@@ -7171,10 +7177,10 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B292" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C292" s="1">
         <v>2009</v>
@@ -7194,10 +7200,10 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B293" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C293" s="1">
         <v>2010</v>
@@ -7217,10 +7223,10 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B294" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C294" s="1">
         <v>2011</v>
@@ -7240,10 +7246,10 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B295" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C295" s="1">
         <v>2012</v>
@@ -7263,10 +7269,10 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B296" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C296" s="1">
         <v>2013</v>
@@ -7286,10 +7292,10 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B297" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C297" s="1">
         <v>2014</v>
@@ -7309,10 +7315,10 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B298" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C298" s="1">
         <v>2015</v>
@@ -7332,10 +7338,10 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B299" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C299" s="1">
         <v>2016</v>
@@ -7355,10 +7361,10 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B300" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C300" s="1">
         <v>2017</v>
@@ -7378,10 +7384,10 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B301" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C301" s="1">
         <v>2018</v>
@@ -7401,10 +7407,10 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B302" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C302" s="1">
         <v>1994</v>
@@ -7424,10 +7430,10 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C303" s="1">
         <v>1995</v>
@@ -7447,10 +7453,10 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B304" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C304" s="1">
         <v>1996</v>
@@ -7470,10 +7476,10 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C305" s="1">
         <v>1997</v>
@@ -7493,10 +7499,10 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C306" s="1">
         <v>1998</v>
@@ -7516,10 +7522,10 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B307" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C307" s="1">
         <v>1999</v>
@@ -7539,10 +7545,10 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B308" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C308" s="1">
         <v>2000</v>
@@ -7562,10 +7568,10 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B309" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C309" s="1">
         <v>2001</v>
@@ -7585,10 +7591,10 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B310" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C310" s="1">
         <v>2002</v>
@@ -7608,10 +7614,10 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C311" s="1">
         <v>2003</v>
@@ -7631,10 +7637,10 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B312" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C312" s="1">
         <v>2004</v>
@@ -7654,10 +7660,10 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B313" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C313" s="1">
         <v>2005</v>
@@ -7677,10 +7683,10 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C314" s="1">
         <v>2006</v>
@@ -7700,10 +7706,10 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B315" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C315" s="1">
         <v>2007</v>
@@ -7723,10 +7729,10 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B316" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C316" s="1">
         <v>2008</v>
@@ -7746,10 +7752,10 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B317" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C317" s="1">
         <v>2009</v>
@@ -7769,10 +7775,10 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B318" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C318" s="1">
         <v>2010</v>
@@ -7792,10 +7798,10 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B319" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C319" s="1">
         <v>2011</v>
@@ -7815,10 +7821,10 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B320" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C320" s="1">
         <v>2012</v>
@@ -7838,10 +7844,10 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B321" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C321" s="1">
         <v>2013</v>
@@ -7861,10 +7867,10 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C322" s="1">
         <v>2014</v>
@@ -7884,10 +7890,10 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B323" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C323" s="1">
         <v>2015</v>
@@ -7907,10 +7913,10 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B324" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C324" s="1">
         <v>2016</v>
@@ -7930,10 +7936,10 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B325" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C325" s="1">
         <v>2017</v>
@@ -7953,10 +7959,10 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B326" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C326" s="1">
         <v>2018</v>
@@ -7976,10 +7982,10 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B327" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C327" s="1">
         <v>1994</v>
@@ -7999,10 +8005,10 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B328" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C328" s="1">
         <v>1995</v>
@@ -8022,10 +8028,10 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B329" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C329" s="1">
         <v>1996</v>
@@ -8045,10 +8051,10 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B330" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C330" s="1">
         <v>1997</v>
@@ -8068,10 +8074,10 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B331" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C331" s="1">
         <v>1998</v>
@@ -8091,10 +8097,10 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B332" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C332" s="1">
         <v>1999</v>
@@ -8114,10 +8120,10 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B333" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C333" s="1">
         <v>2000</v>
@@ -8137,10 +8143,10 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B334" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C334" s="1">
         <v>2001</v>
@@ -8160,10 +8166,10 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B335" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C335" s="1">
         <v>2002</v>
@@ -8183,10 +8189,10 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B336" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C336" s="1">
         <v>2003</v>
@@ -8206,10 +8212,10 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B337" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C337" s="1">
         <v>2004</v>
@@ -8229,10 +8235,10 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B338" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C338" s="1">
         <v>2005</v>
@@ -8252,10 +8258,10 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B339" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C339" s="1">
         <v>2006</v>
@@ -8275,10 +8281,10 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B340" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C340" s="1">
         <v>2007</v>
@@ -8298,10 +8304,10 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B341" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C341" s="1">
         <v>2008</v>
@@ -8321,10 +8327,10 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B342" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C342" s="1">
         <v>2009</v>
@@ -8344,10 +8350,10 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C343" s="1">
         <v>2010</v>
@@ -8367,10 +8373,10 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B344" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C344" s="1">
         <v>2011</v>
@@ -8390,10 +8396,10 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B345" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C345" s="1">
         <v>2012</v>
@@ -8413,10 +8419,10 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B346" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C346" s="1">
         <v>2013</v>
@@ -8436,10 +8442,10 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B347" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C347" s="1">
         <v>2014</v>
@@ -8459,10 +8465,10 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B348" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C348" s="1">
         <v>2015</v>
@@ -8482,10 +8488,10 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B349" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C349" s="1">
         <v>2016</v>
@@ -8505,10 +8511,10 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B350" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C350" s="1">
         <v>2017</v>
@@ -8528,10 +8534,10 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B351" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C351" s="1">
         <v>2018</v>

--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F845E69-7629-4F97-BADB-70B21A56CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5210425-6C56-4B8B-9F40-83B235511054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="36">
   <si>
     <t>Vintage</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Château Pavie</t>
   </si>
   <si>
-    <t>Pomerol</t>
-  </si>
-  <si>
-    <t>Saint Emilion</t>
-  </si>
-  <si>
     <t>Médoc</t>
   </si>
   <si>
@@ -131,6 +125,15 @@
   </si>
   <si>
     <t>Château Pichon-Longueville Comtesse de Lalande</t>
+  </si>
+  <si>
+    <t>Château Figeac</t>
+  </si>
+  <si>
+    <t>Saint-Émilion / Pomerol</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -487,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -507,10 +510,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1994</v>
@@ -530,10 +533,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1995</v>
@@ -553,10 +556,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1996</v>
@@ -576,10 +579,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>1997</v>
@@ -599,10 +602,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1998</v>
@@ -622,10 +625,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>1999</v>
@@ -645,10 +648,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2000</v>
@@ -668,10 +671,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>2001</v>
@@ -691,10 +694,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>2002</v>
@@ -714,10 +717,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>2003</v>
@@ -737,10 +740,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2004</v>
@@ -760,10 +763,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>2005</v>
@@ -783,10 +786,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>2006</v>
@@ -806,10 +809,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>2007</v>
@@ -829,10 +832,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>2008</v>
@@ -852,10 +855,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
@@ -875,10 +878,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>2010</v>
@@ -898,10 +901,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>2011</v>
@@ -921,10 +924,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>2012</v>
@@ -944,10 +947,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>2013</v>
@@ -967,10 +970,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2014</v>
@@ -990,10 +993,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>2015</v>
@@ -1013,10 +1016,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -1036,10 +1039,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>2017</v>
@@ -1059,10 +1062,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>2018</v>
@@ -1082,10 +1085,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>1994</v>
@@ -1105,10 +1108,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>1995</v>
@@ -1128,10 +1131,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>1996</v>
@@ -1151,10 +1154,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>1997</v>
@@ -1174,10 +1177,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
         <v>1998</v>
@@ -1197,10 +1200,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>1999</v>
@@ -1220,10 +1223,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1">
         <v>2000</v>
@@ -1243,10 +1246,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>2001</v>
@@ -1266,10 +1269,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
         <v>2002</v>
@@ -1289,10 +1292,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>2003</v>
@@ -1312,10 +1315,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
         <v>2004</v>
@@ -1335,10 +1338,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>2005</v>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
         <v>2006</v>
@@ -1381,10 +1384,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>2007</v>
@@ -1404,10 +1407,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
         <v>2008</v>
@@ -1427,10 +1430,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>2009</v>
@@ -1450,10 +1453,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
         <v>2010</v>
@@ -1473,10 +1476,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>2011</v>
@@ -1496,10 +1499,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1">
         <v>2012</v>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>2013</v>
@@ -1542,10 +1545,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
         <v>2014</v>
@@ -1565,10 +1568,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>2015</v>
@@ -1588,10 +1591,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
         <v>2016</v>
@@ -1611,10 +1614,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>2017</v>
@@ -1634,10 +1637,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1">
         <v>2018</v>
@@ -1657,10 +1660,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>1994</v>
@@ -1680,10 +1683,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1">
         <v>1995</v>
@@ -1703,10 +1706,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>1996</v>
@@ -1726,10 +1729,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
         <v>1997</v>
@@ -1749,10 +1752,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>1998</v>
@@ -1772,10 +1775,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
         <v>1999</v>
@@ -1795,10 +1798,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>2000</v>
@@ -1818,10 +1821,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
         <v>2001</v>
@@ -1841,10 +1844,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>2002</v>
@@ -1864,10 +1867,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1">
         <v>2003</v>
@@ -1887,10 +1890,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>2004</v>
@@ -1910,10 +1913,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1">
         <v>2005</v>
@@ -1933,10 +1936,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>2006</v>
@@ -1956,10 +1959,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
         <v>2007</v>
@@ -1979,10 +1982,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>2008</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
         <v>2009</v>
@@ -2025,10 +2028,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>2010</v>
@@ -2048,10 +2051,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
         <v>2011</v>
@@ -2071,10 +2074,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>2012</v>
@@ -2094,10 +2097,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1">
         <v>2013</v>
@@ -2117,10 +2120,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>2014</v>
@@ -2140,10 +2143,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
         <v>2015</v>
@@ -2163,10 +2166,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>2016</v>
@@ -2186,10 +2189,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1">
         <v>2017</v>
@@ -2209,10 +2212,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>2018</v>
@@ -2235,7 +2238,7 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C77" s="1">
         <v>1994</v>
@@ -2258,7 +2261,7 @@
         <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C78">
         <v>1995</v>
@@ -2281,7 +2284,7 @@
         <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C79" s="1">
         <v>1996</v>
@@ -2304,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C80">
         <v>1997</v>
@@ -2327,7 +2330,7 @@
         <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C81" s="1">
         <v>1998</v>
@@ -2350,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C82">
         <v>1999</v>
@@ -2373,7 +2376,7 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
         <v>2000</v>
@@ -2396,7 +2399,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C84">
         <v>2001</v>
@@ -2419,7 +2422,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1">
         <v>2002</v>
@@ -2442,7 +2445,7 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C86">
         <v>2003</v>
@@ -2465,7 +2468,7 @@
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C87" s="1">
         <v>2004</v>
@@ -2488,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <v>2005</v>
@@ -2511,7 +2514,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1">
         <v>2006</v>
@@ -2534,7 +2537,7 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <v>2007</v>
@@ -2557,7 +2560,7 @@
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C91" s="1">
         <v>2008</v>
@@ -2580,7 +2583,7 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <v>2009</v>
@@ -2603,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C93" s="1">
         <v>2010</v>
@@ -2626,7 +2629,7 @@
         <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>2011</v>
@@ -2649,7 +2652,7 @@
         <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C95" s="1">
         <v>2012</v>
@@ -2672,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>2013</v>
@@ -2695,7 +2698,7 @@
         <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1">
         <v>2014</v>
@@ -2718,7 +2721,7 @@
         <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C98">
         <v>2015</v>
@@ -2741,7 +2744,7 @@
         <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
         <v>2016</v>
@@ -2764,7 +2767,7 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C100">
         <v>2017</v>
@@ -2787,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C101" s="1">
         <v>2018</v>
@@ -2810,7 +2813,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <v>1994</v>
@@ -2833,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C103" s="1">
         <v>1995</v>
@@ -2856,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C104">
         <v>1996</v>
@@ -2879,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1">
         <v>1997</v>
@@ -2902,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <v>1998</v>
@@ -2925,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1">
         <v>1999</v>
@@ -2948,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <v>2000</v>
@@ -2971,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C109" s="1">
         <v>2001</v>
@@ -2994,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C110">
         <v>2002</v>
@@ -3017,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <v>2003</v>
@@ -3040,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C112">
         <v>2004</v>
@@ -3063,7 +3066,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C113" s="1">
         <v>2005</v>
@@ -3086,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C114">
         <v>2006</v>
@@ -3109,7 +3112,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1">
         <v>2007</v>
@@ -3132,7 +3135,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C116">
         <v>2008</v>
@@ -3155,7 +3158,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C117" s="1">
         <v>2009</v>
@@ -3178,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <v>2010</v>
@@ -3201,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C119" s="1">
         <v>2011</v>
@@ -3224,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <v>2012</v>
@@ -3247,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C121" s="1">
         <v>2013</v>
@@ -3270,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C122">
         <v>2014</v>
@@ -3293,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C123" s="1">
         <v>2015</v>
@@ -3316,7 +3319,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C124">
         <v>2016</v>
@@ -3339,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C125" s="1">
         <v>2017</v>
@@ -3362,7 +3365,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C126">
         <v>2018</v>
@@ -3385,7 +3388,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C127" s="1">
         <v>1994</v>
@@ -3408,7 +3411,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C128">
         <v>1995</v>
@@ -3431,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C129" s="1">
         <v>1996</v>
@@ -3454,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C130">
         <v>1997</v>
@@ -3477,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C131" s="1">
         <v>1998</v>
@@ -3500,7 +3503,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>1999</v>
@@ -3523,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C133" s="1">
         <v>2000</v>
@@ -3546,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>2001</v>
@@ -3569,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C135" s="1">
         <v>2002</v>
@@ -3592,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C136">
         <v>2003</v>
@@ -3615,7 +3618,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C137" s="1">
         <v>2004</v>
@@ -3638,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C138">
         <v>2005</v>
@@ -3661,7 +3664,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" s="1">
         <v>2006</v>
@@ -3684,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140">
         <v>2007</v>
@@ -3707,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C141" s="1">
         <v>2008</v>
@@ -3730,7 +3733,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C142">
         <v>2009</v>
@@ -3753,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C143" s="1">
         <v>2010</v>
@@ -3776,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C144">
         <v>2011</v>
@@ -3799,7 +3802,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C145" s="1">
         <v>2012</v>
@@ -3822,7 +3825,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C146">
         <v>2013</v>
@@ -3845,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C147" s="1">
         <v>2014</v>
@@ -3868,7 +3871,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C148">
         <v>2015</v>
@@ -3891,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C149" s="1">
         <v>2016</v>
@@ -3914,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C150">
         <v>2017</v>
@@ -3937,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C151" s="1">
         <v>2018</v>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C152">
         <v>1994</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C153" s="1">
         <v>1995</v>
@@ -4003,10 +4006,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C154">
         <v>1996</v>
@@ -4026,10 +4029,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C155" s="1">
         <v>1997</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C156">
         <v>1998</v>
@@ -4072,10 +4075,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C157" s="1">
         <v>1999</v>
@@ -4095,10 +4098,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C158">
         <v>2000</v>
@@ -4118,10 +4121,10 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C159" s="1">
         <v>2001</v>
@@ -4141,10 +4144,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C160">
         <v>2002</v>
@@ -4164,10 +4167,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C161" s="1">
         <v>2003</v>
@@ -4187,10 +4190,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C162">
         <v>2004</v>
@@ -4210,10 +4213,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C163" s="1">
         <v>2005</v>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C164">
         <v>2006</v>
@@ -4256,10 +4259,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C165" s="1">
         <v>2007</v>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C166">
         <v>2008</v>
@@ -4302,10 +4305,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C167" s="1">
         <v>2009</v>
@@ -4325,10 +4328,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C168">
         <v>2010</v>
@@ -4348,10 +4351,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C169" s="1">
         <v>2011</v>
@@ -4371,10 +4374,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C170">
         <v>2012</v>
@@ -4394,10 +4397,10 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C171" s="1">
         <v>2013</v>
@@ -4417,10 +4420,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C172">
         <v>2014</v>
@@ -4440,10 +4443,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C173" s="1">
         <v>2015</v>
@@ -4463,10 +4466,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C174">
         <v>2016</v>
@@ -4486,10 +4489,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C175" s="1">
         <v>2017</v>
@@ -4509,10 +4512,10 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C176">
         <v>2018</v>
@@ -4535,7 +4538,7 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C177" s="1">
         <v>1994</v>
@@ -4558,7 +4561,7 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C178" s="1">
         <v>1995</v>
@@ -4581,7 +4584,7 @@
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C179" s="1">
         <v>1996</v>
@@ -4604,7 +4607,7 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C180" s="1">
         <v>1997</v>
@@ -4627,7 +4630,7 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C181" s="1">
         <v>1998</v>
@@ -4650,7 +4653,7 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C182" s="1">
         <v>1999</v>
@@ -4673,7 +4676,7 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C183" s="1">
         <v>2000</v>
@@ -4696,7 +4699,7 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C184" s="1">
         <v>2001</v>
@@ -4719,7 +4722,7 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C185" s="1">
         <v>2002</v>
@@ -4742,7 +4745,7 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C186" s="1">
         <v>2003</v>
@@ -4765,7 +4768,7 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C187" s="1">
         <v>2004</v>
@@ -4788,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C188" s="1">
         <v>2005</v>
@@ -4811,7 +4814,7 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C189" s="1">
         <v>2006</v>
@@ -4834,7 +4837,7 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C190" s="1">
         <v>2007</v>
@@ -4857,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C191" s="1">
         <v>2008</v>
@@ -4880,7 +4883,7 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C192" s="1">
         <v>2009</v>
@@ -4903,7 +4906,7 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C193" s="1">
         <v>2010</v>
@@ -4926,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C194" s="1">
         <v>2011</v>
@@ -4949,7 +4952,7 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C195" s="1">
         <v>2012</v>
@@ -4972,7 +4975,7 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C196" s="1">
         <v>2013</v>
@@ -4995,7 +4998,7 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C197" s="1">
         <v>2014</v>
@@ -5018,7 +5021,7 @@
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C198" s="1">
         <v>2015</v>
@@ -5041,7 +5044,7 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C199" s="1">
         <v>2016</v>
@@ -5064,7 +5067,7 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C200" s="1">
         <v>2017</v>
@@ -5087,7 +5090,7 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C201" s="1">
         <v>2018</v>
@@ -5110,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C202" s="1">
         <v>1994</v>
@@ -5133,7 +5136,7 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C203" s="1">
         <v>1995</v>
@@ -5156,7 +5159,7 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C204" s="1">
         <v>1996</v>
@@ -5179,7 +5182,7 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C205" s="1">
         <v>1997</v>
@@ -5202,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C206" s="1">
         <v>1998</v>
@@ -5225,7 +5228,7 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C207" s="1">
         <v>1999</v>
@@ -5248,7 +5251,7 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C208" s="1">
         <v>2000</v>
@@ -5271,7 +5274,7 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C209" s="1">
         <v>2001</v>
@@ -5294,7 +5297,7 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C210" s="1">
         <v>2002</v>
@@ -5317,7 +5320,7 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C211" s="1">
         <v>2003</v>
@@ -5340,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C212" s="1">
         <v>2004</v>
@@ -5363,7 +5366,7 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C213" s="1">
         <v>2005</v>
@@ -5386,7 +5389,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C214" s="1">
         <v>2006</v>
@@ -5409,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C215" s="1">
         <v>2007</v>
@@ -5432,7 +5435,7 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C216" s="1">
         <v>2008</v>
@@ -5455,7 +5458,7 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C217" s="1">
         <v>2009</v>
@@ -5478,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C218" s="1">
         <v>2010</v>
@@ -5501,7 +5504,7 @@
         <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C219" s="1">
         <v>2011</v>
@@ -5524,7 +5527,7 @@
         <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C220" s="1">
         <v>2012</v>
@@ -5547,7 +5550,7 @@
         <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C221" s="1">
         <v>2013</v>
@@ -5570,7 +5573,7 @@
         <v>20</v>
       </c>
       <c r="B222" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C222" s="1">
         <v>2014</v>
@@ -5593,7 +5596,7 @@
         <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C223" s="1">
         <v>2015</v>
@@ -5616,7 +5619,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C224" s="1">
         <v>2016</v>
@@ -5639,7 +5642,7 @@
         <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C225" s="1">
         <v>2017</v>
@@ -5662,7 +5665,7 @@
         <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C226" s="1">
         <v>2018</v>
@@ -5685,7 +5688,7 @@
         <v>22</v>
       </c>
       <c r="B227" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C227" s="1">
         <v>1994</v>
@@ -5708,7 +5711,7 @@
         <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C228" s="1">
         <v>1995</v>
@@ -5731,7 +5734,7 @@
         <v>22</v>
       </c>
       <c r="B229" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C229" s="1">
         <v>1996</v>
@@ -5754,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="B230" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C230" s="1">
         <v>1997</v>
@@ -5777,7 +5780,7 @@
         <v>22</v>
       </c>
       <c r="B231" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C231" s="1">
         <v>1998</v>
@@ -5800,7 +5803,7 @@
         <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C232" s="1">
         <v>1999</v>
@@ -5823,7 +5826,7 @@
         <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C233" s="1">
         <v>2000</v>
@@ -5846,7 +5849,7 @@
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C234" s="1">
         <v>2001</v>
@@ -5869,7 +5872,7 @@
         <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C235" s="1">
         <v>2002</v>
@@ -5892,7 +5895,7 @@
         <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C236" s="1">
         <v>2003</v>
@@ -5915,7 +5918,7 @@
         <v>22</v>
       </c>
       <c r="B237" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C237" s="1">
         <v>2004</v>
@@ -5938,7 +5941,7 @@
         <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C238" s="1">
         <v>2005</v>
@@ -5961,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="B239" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C239" s="1">
         <v>2006</v>
@@ -5984,7 +5987,7 @@
         <v>22</v>
       </c>
       <c r="B240" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C240" s="1">
         <v>2007</v>
@@ -6007,7 +6010,7 @@
         <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C241" s="1">
         <v>2008</v>
@@ -6030,7 +6033,7 @@
         <v>22</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C242" s="1">
         <v>2009</v>
@@ -6053,7 +6056,7 @@
         <v>22</v>
       </c>
       <c r="B243" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C243" s="1">
         <v>2010</v>
@@ -6076,7 +6079,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C244" s="1">
         <v>2011</v>
@@ -6099,7 +6102,7 @@
         <v>22</v>
       </c>
       <c r="B245" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C245" s="1">
         <v>2012</v>
@@ -6122,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="B246" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C246" s="1">
         <v>2013</v>
@@ -6145,7 +6148,7 @@
         <v>22</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C247" s="1">
         <v>2014</v>
@@ -6168,7 +6171,7 @@
         <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C248" s="1">
         <v>2015</v>
@@ -6191,7 +6194,7 @@
         <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C249" s="1">
         <v>2016</v>
@@ -6214,7 +6217,7 @@
         <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C250" s="1">
         <v>2017</v>
@@ -6237,7 +6240,7 @@
         <v>22</v>
       </c>
       <c r="B251" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C251" s="1">
         <v>2018</v>
@@ -6257,10 +6260,10 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B252" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C252" s="1">
         <v>1994</v>
@@ -6280,10 +6283,10 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B253" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C253" s="1">
         <v>1995</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B254" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C254" s="1">
         <v>1996</v>
@@ -6326,10 +6329,10 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B255" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C255" s="1">
         <v>1997</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B256" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C256" s="1">
         <v>1998</v>
@@ -6372,10 +6375,10 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C257" s="1">
         <v>1999</v>
@@ -6395,10 +6398,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C258" s="1">
         <v>2000</v>
@@ -6418,10 +6421,10 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C259" s="1">
         <v>2001</v>
@@ -6441,10 +6444,10 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B260" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C260" s="1">
         <v>2002</v>
@@ -6464,10 +6467,10 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B261" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C261" s="1">
         <v>2003</v>
@@ -6487,10 +6490,10 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B262" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C262" s="1">
         <v>2004</v>
@@ -6510,10 +6513,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B263" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C263" s="1">
         <v>2005</v>
@@ -6533,10 +6536,10 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B264" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C264" s="1">
         <v>2006</v>
@@ -6556,10 +6559,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B265" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C265" s="1">
         <v>2007</v>
@@ -6579,10 +6582,10 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B266" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C266" s="1">
         <v>2008</v>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B267" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C267" s="1">
         <v>2009</v>
@@ -6625,10 +6628,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B268" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C268" s="1">
         <v>2010</v>
@@ -6648,10 +6651,10 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B269" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C269" s="1">
         <v>2011</v>
@@ -6671,10 +6674,10 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B270" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C270" s="1">
         <v>2012</v>
@@ -6694,10 +6697,10 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C271" s="1">
         <v>2013</v>
@@ -6717,10 +6720,10 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B272" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C272" s="1">
         <v>2014</v>
@@ -6740,10 +6743,10 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B273" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C273" s="1">
         <v>2015</v>
@@ -6763,10 +6766,10 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B274" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C274" s="1">
         <v>2016</v>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B275" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C275" s="1">
         <v>2017</v>
@@ -6809,10 +6812,10 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B276" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C276" s="1">
         <v>2018</v>
@@ -6835,7 +6838,7 @@
         <v>24</v>
       </c>
       <c r="B277" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C277" s="1">
         <v>1994</v>
@@ -6858,7 +6861,7 @@
         <v>24</v>
       </c>
       <c r="B278" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C278" s="1">
         <v>1995</v>
@@ -6881,7 +6884,7 @@
         <v>24</v>
       </c>
       <c r="B279" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C279" s="1">
         <v>1996</v>
@@ -6904,7 +6907,7 @@
         <v>24</v>
       </c>
       <c r="B280" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C280" s="1">
         <v>1997</v>
@@ -6927,7 +6930,7 @@
         <v>24</v>
       </c>
       <c r="B281" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C281" s="1">
         <v>1998</v>
@@ -6950,7 +6953,7 @@
         <v>24</v>
       </c>
       <c r="B282" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C282" s="1">
         <v>1999</v>
@@ -6973,7 +6976,7 @@
         <v>24</v>
       </c>
       <c r="B283" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C283" s="1">
         <v>2000</v>
@@ -6996,7 +6999,7 @@
         <v>24</v>
       </c>
       <c r="B284" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C284" s="1">
         <v>2001</v>
@@ -7019,7 +7022,7 @@
         <v>24</v>
       </c>
       <c r="B285" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C285" s="1">
         <v>2002</v>
@@ -7042,7 +7045,7 @@
         <v>24</v>
       </c>
       <c r="B286" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C286" s="1">
         <v>2003</v>
@@ -7065,7 +7068,7 @@
         <v>24</v>
       </c>
       <c r="B287" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C287" s="1">
         <v>2004</v>
@@ -7088,7 +7091,7 @@
         <v>24</v>
       </c>
       <c r="B288" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C288" s="1">
         <v>2005</v>
@@ -7111,7 +7114,7 @@
         <v>24</v>
       </c>
       <c r="B289" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C289" s="1">
         <v>2006</v>
@@ -7134,7 +7137,7 @@
         <v>24</v>
       </c>
       <c r="B290" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C290" s="1">
         <v>2007</v>
@@ -7157,7 +7160,7 @@
         <v>24</v>
       </c>
       <c r="B291" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C291" s="1">
         <v>2008</v>
@@ -7180,7 +7183,7 @@
         <v>24</v>
       </c>
       <c r="B292" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C292" s="1">
         <v>2009</v>
@@ -7203,7 +7206,7 @@
         <v>24</v>
       </c>
       <c r="B293" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C293" s="1">
         <v>2010</v>
@@ -7226,7 +7229,7 @@
         <v>24</v>
       </c>
       <c r="B294" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C294" s="1">
         <v>2011</v>
@@ -7249,7 +7252,7 @@
         <v>24</v>
       </c>
       <c r="B295" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C295" s="1">
         <v>2012</v>
@@ -7272,7 +7275,7 @@
         <v>24</v>
       </c>
       <c r="B296" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C296" s="1">
         <v>2013</v>
@@ -7295,7 +7298,7 @@
         <v>24</v>
       </c>
       <c r="B297" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C297" s="1">
         <v>2014</v>
@@ -7318,7 +7321,7 @@
         <v>24</v>
       </c>
       <c r="B298" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C298" s="1">
         <v>2015</v>
@@ -7341,7 +7344,7 @@
         <v>24</v>
       </c>
       <c r="B299" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C299" s="1">
         <v>2016</v>
@@ -7364,7 +7367,7 @@
         <v>24</v>
       </c>
       <c r="B300" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C300" s="1">
         <v>2017</v>
@@ -7387,7 +7390,7 @@
         <v>24</v>
       </c>
       <c r="B301" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C301" s="1">
         <v>2018</v>
@@ -7407,10 +7410,10 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C302" s="1">
         <v>1994</v>
@@ -7430,10 +7433,10 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B303" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C303" s="1">
         <v>1995</v>
@@ -7453,10 +7456,10 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C304" s="1">
         <v>1996</v>
@@ -7476,10 +7479,10 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C305" s="1">
         <v>1997</v>
@@ -7499,10 +7502,10 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B306" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C306" s="1">
         <v>1998</v>
@@ -7522,10 +7525,10 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B307" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C307" s="1">
         <v>1999</v>
@@ -7545,10 +7548,10 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B308" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C308" s="1">
         <v>2000</v>
@@ -7568,10 +7571,10 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C309" s="1">
         <v>2001</v>
@@ -7591,10 +7594,10 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C310" s="1">
         <v>2002</v>
@@ -7614,10 +7617,10 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C311" s="1">
         <v>2003</v>
@@ -7637,10 +7640,10 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B312" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C312" s="1">
         <v>2004</v>
@@ -7660,10 +7663,10 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B313" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C313" s="1">
         <v>2005</v>
@@ -7683,10 +7686,10 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B314" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C314" s="1">
         <v>2006</v>
@@ -7706,10 +7709,10 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B315" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C315" s="1">
         <v>2007</v>
@@ -7729,10 +7732,10 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B316" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C316" s="1">
         <v>2008</v>
@@ -7752,10 +7755,10 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B317" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C317" s="1">
         <v>2009</v>
@@ -7775,10 +7778,10 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B318" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C318" s="1">
         <v>2010</v>
@@ -7798,10 +7801,10 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B319" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C319" s="1">
         <v>2011</v>
@@ -7821,10 +7824,10 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B320" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C320" s="1">
         <v>2012</v>
@@ -7844,10 +7847,10 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B321" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C321" s="1">
         <v>2013</v>
@@ -7867,10 +7870,10 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B322" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C322" s="1">
         <v>2014</v>
@@ -7890,10 +7893,10 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B323" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C323" s="1">
         <v>2015</v>
@@ -7913,10 +7916,10 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B324" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C324" s="1">
         <v>2016</v>
@@ -7936,10 +7939,10 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B325" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C325" s="1">
         <v>2017</v>
@@ -7959,10 +7962,10 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B326" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C326" s="1">
         <v>2018</v>
@@ -7982,10 +7985,10 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B327" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C327" s="1">
         <v>1994</v>
@@ -8005,10 +8008,10 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B328" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C328" s="1">
         <v>1995</v>
@@ -8028,10 +8031,10 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B329" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C329" s="1">
         <v>1996</v>
@@ -8051,10 +8054,10 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B330" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C330" s="1">
         <v>1997</v>
@@ -8074,10 +8077,10 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B331" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C331" s="1">
         <v>1998</v>
@@ -8097,10 +8100,10 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B332" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C332" s="1">
         <v>1999</v>
@@ -8120,10 +8123,10 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B333" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C333" s="1">
         <v>2000</v>
@@ -8143,10 +8146,10 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B334" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C334" s="1">
         <v>2001</v>
@@ -8166,10 +8169,10 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B335" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C335" s="1">
         <v>2002</v>
@@ -8189,10 +8192,10 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B336" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C336" s="1">
         <v>2003</v>
@@ -8212,10 +8215,10 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B337" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C337" s="1">
         <v>2004</v>
@@ -8235,10 +8238,10 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B338" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C338" s="1">
         <v>2005</v>
@@ -8258,10 +8261,10 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B339" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C339" s="1">
         <v>2006</v>
@@ -8281,10 +8284,10 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B340" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C340" s="1">
         <v>2007</v>
@@ -8304,10 +8307,10 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B341" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C341" s="1">
         <v>2008</v>
@@ -8327,10 +8330,10 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B342" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C342" s="1">
         <v>2009</v>
@@ -8350,10 +8353,10 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B343" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C343" s="1">
         <v>2010</v>
@@ -8373,10 +8376,10 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B344" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C344" s="1">
         <v>2011</v>
@@ -8396,10 +8399,10 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B345" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C345" s="1">
         <v>2012</v>
@@ -8419,10 +8422,10 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B346" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C346" s="1">
         <v>2013</v>
@@ -8442,10 +8445,10 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B347" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C347" s="1">
         <v>2014</v>
@@ -8465,10 +8468,10 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B348" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C348" s="1">
         <v>2015</v>
@@ -8488,10 +8491,10 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B349" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C349" s="1">
         <v>2016</v>
@@ -8511,10 +8514,10 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B350" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C350" s="1">
         <v>2017</v>
@@ -8534,10 +8537,10 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B351" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C351" s="1">
         <v>2018</v>
@@ -8552,6 +8555,575 @@
         <v>43556</v>
       </c>
       <c r="G351" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" t="s">
+        <v>34</v>
+      </c>
+      <c r="C352" s="1">
+        <v>1994</v>
+      </c>
+      <c r="F352" s="2">
+        <v>34790</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" t="s">
+        <v>34</v>
+      </c>
+      <c r="C353" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D353">
+        <v>87</v>
+      </c>
+      <c r="E353">
+        <v>90</v>
+      </c>
+      <c r="F353" s="2">
+        <v>35156</v>
+      </c>
+      <c r="G353" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" t="s">
+        <v>34</v>
+      </c>
+      <c r="C354" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D354">
+        <v>84</v>
+      </c>
+      <c r="E354">
+        <v>86</v>
+      </c>
+      <c r="F354" s="2">
+        <v>35521</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" t="s">
+        <v>34</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D355">
+        <v>81</v>
+      </c>
+      <c r="E355">
+        <v>85</v>
+      </c>
+      <c r="F355" s="2">
+        <v>35886</v>
+      </c>
+      <c r="G355" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" t="s">
+        <v>34</v>
+      </c>
+      <c r="C356" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D356">
+        <v>88</v>
+      </c>
+      <c r="E356">
+        <v>91</v>
+      </c>
+      <c r="F356" s="2">
+        <v>36251</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357" t="s">
+        <v>34</v>
+      </c>
+      <c r="C357" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D357">
+        <v>88</v>
+      </c>
+      <c r="E357">
+        <v>90</v>
+      </c>
+      <c r="F357" s="2">
+        <v>36617</v>
+      </c>
+      <c r="G357" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358" t="s">
+        <v>34</v>
+      </c>
+      <c r="C358" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D358">
+        <v>92</v>
+      </c>
+      <c r="E358">
+        <v>94</v>
+      </c>
+      <c r="F358" s="2">
+        <v>36982</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359" t="s">
+        <v>34</v>
+      </c>
+      <c r="C359" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D359">
+        <v>86</v>
+      </c>
+      <c r="E359">
+        <v>88</v>
+      </c>
+      <c r="F359" s="2">
+        <v>37347</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360" t="s">
+        <v>34</v>
+      </c>
+      <c r="C360" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D360">
+        <v>88</v>
+      </c>
+      <c r="E360">
+        <v>90</v>
+      </c>
+      <c r="F360" s="2">
+        <v>37895</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361" t="s">
+        <v>34</v>
+      </c>
+      <c r="C361" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D361">
+        <v>85</v>
+      </c>
+      <c r="E361">
+        <v>88</v>
+      </c>
+      <c r="F361" s="2">
+        <v>38078</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362" t="s">
+        <v>34</v>
+      </c>
+      <c r="C362" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D362">
+        <v>88</v>
+      </c>
+      <c r="E362">
+        <v>89</v>
+      </c>
+      <c r="F362" s="2">
+        <v>38869</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363" t="s">
+        <v>34</v>
+      </c>
+      <c r="C363" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D363">
+        <v>91</v>
+      </c>
+      <c r="E363">
+        <v>94</v>
+      </c>
+      <c r="F363" s="2">
+        <v>38808</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" t="s">
+        <v>34</v>
+      </c>
+      <c r="C364" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D364">
+        <v>90</v>
+      </c>
+      <c r="E364">
+        <v>90</v>
+      </c>
+      <c r="F364" s="2">
+        <v>39845</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" t="s">
+        <v>34</v>
+      </c>
+      <c r="C365" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D365">
+        <v>85</v>
+      </c>
+      <c r="E365">
+        <v>85</v>
+      </c>
+      <c r="F365" s="2">
+        <v>42887</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366" t="s">
+        <v>34</v>
+      </c>
+      <c r="C366" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D366">
+        <v>81</v>
+      </c>
+      <c r="E366">
+        <v>81</v>
+      </c>
+      <c r="F366" s="2">
+        <v>39904</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367" t="s">
+        <v>34</v>
+      </c>
+      <c r="C367" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D367">
+        <v>94</v>
+      </c>
+      <c r="E367">
+        <v>94</v>
+      </c>
+      <c r="F367" s="2">
+        <v>42583</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368" t="s">
+        <v>34</v>
+      </c>
+      <c r="C368" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D368">
+        <v>95</v>
+      </c>
+      <c r="E368">
+        <v>95</v>
+      </c>
+      <c r="F368" s="2">
+        <v>42583</v>
+      </c>
+      <c r="G368" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369" t="s">
+        <v>34</v>
+      </c>
+      <c r="C369" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D369">
+        <v>87</v>
+      </c>
+      <c r="E369">
+        <v>87</v>
+      </c>
+      <c r="F369" s="2">
+        <v>41730</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" t="s">
+        <v>34</v>
+      </c>
+      <c r="C370" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D370">
+        <v>86</v>
+      </c>
+      <c r="E370">
+        <v>88</v>
+      </c>
+      <c r="F370" s="2">
+        <v>41365</v>
+      </c>
+      <c r="G370" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B371" t="s">
+        <v>34</v>
+      </c>
+      <c r="C371" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D371">
+        <v>89</v>
+      </c>
+      <c r="E371">
+        <v>91</v>
+      </c>
+      <c r="F371" s="2">
+        <v>41852</v>
+      </c>
+      <c r="G371" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372" t="s">
+        <v>34</v>
+      </c>
+      <c r="C372" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D372">
+        <v>93</v>
+      </c>
+      <c r="E372">
+        <v>95</v>
+      </c>
+      <c r="F372" s="2">
+        <v>42095</v>
+      </c>
+      <c r="G372" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373" t="s">
+        <v>34</v>
+      </c>
+      <c r="C373" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D373">
+        <v>97</v>
+      </c>
+      <c r="E373">
+        <v>99</v>
+      </c>
+      <c r="F373" s="2">
+        <v>42461</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374" t="s">
+        <v>34</v>
+      </c>
+      <c r="C374" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D374">
+        <v>98</v>
+      </c>
+      <c r="E374">
+        <v>100</v>
+      </c>
+      <c r="F374" s="2">
+        <v>42826</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" t="s">
+        <v>34</v>
+      </c>
+      <c r="C375" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D375">
+        <v>94</v>
+      </c>
+      <c r="E375">
+        <v>96</v>
+      </c>
+      <c r="F375" s="2">
+        <v>43191</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376" t="s">
+        <v>34</v>
+      </c>
+      <c r="C376" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D376">
+        <v>97</v>
+      </c>
+      <c r="E376">
+        <v>99</v>
+      </c>
+      <c r="F376" s="2">
+        <v>43556</v>
+      </c>
+      <c r="G376" s="4" t="s">
         <v>19</v>
       </c>
     </row>
